--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="school" sheetId="1" r:id="rId1"/>
     <sheet name="type_academy" sheetId="2" r:id="rId2"/>
     <sheet name="type_assesor" sheetId="3" r:id="rId3"/>
-    <sheet name="faculty" sheetId="4" r:id="rId4"/>
-    <sheet name="faculty_group" sheetId="5" r:id="rId5"/>
-    <sheet name="field_study" sheetId="6" r:id="rId6"/>
+    <sheet name="edu_level" sheetId="7" r:id="rId4"/>
+    <sheet name="faculty" sheetId="4" r:id="rId5"/>
+    <sheet name="faculty_group" sheetId="5" r:id="rId6"/>
+    <sheet name="field_study" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">faculty!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">field_study!$A$1:$E$255</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">faculty!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">field_study!$A$1:$E$255</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">school!$A$1:$C$257</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="808">
   <si>
     <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
   </si>
@@ -2440,6 +2441,24 @@
   </si>
   <si>
     <t>field_study_name</t>
+  </si>
+  <si>
+    <t>ต่ำกว่าอนุปริญญา</t>
+  </si>
+  <si>
+    <t>อนุปริญญา</t>
+  </si>
+  <si>
+    <t>ปริญญาตรี</t>
+  </si>
+  <si>
+    <t>ปริญญาโท</t>
+  </si>
+  <si>
+    <t>ปริญญาเอก</t>
+  </si>
+  <si>
+    <t>edu_level_name</t>
   </si>
 </sst>
 </file>
@@ -2493,11 +2512,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2815,18 +2835,18 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
@@ -2837,7 +2857,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
@@ -2848,7 +2868,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
@@ -2859,7 +2879,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
@@ -2870,7 +2890,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
@@ -2881,7 +2901,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
@@ -2892,7 +2912,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
@@ -2903,7 +2923,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
@@ -2914,7 +2934,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
@@ -2925,7 +2945,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
@@ -2936,7 +2956,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
@@ -2947,7 +2967,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
@@ -2958,7 +2978,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
@@ -2969,7 +2989,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
@@ -2980,7 +3000,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>2001</v>
       </c>
       <c r="B15" t="s">
@@ -2991,7 +3011,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>2002</v>
       </c>
       <c r="B16" t="s">
@@ -3002,7 +3022,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>2003</v>
       </c>
       <c r="B17" t="s">
@@ -3013,7 +3033,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>2004</v>
       </c>
       <c r="B18" t="s">
@@ -3024,7 +3044,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>2005</v>
       </c>
       <c r="B19" t="s">
@@ -3035,7 +3055,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>2006</v>
       </c>
       <c r="B20" t="s">
@@ -3046,7 +3066,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>2007</v>
       </c>
       <c r="B21" t="s">
@@ -3057,7 +3077,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>2008</v>
       </c>
       <c r="B22" t="s">
@@ -3068,7 +3088,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>2009</v>
       </c>
       <c r="B23" t="s">
@@ -3079,7 +3099,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>2010</v>
       </c>
       <c r="B24" t="s">
@@ -3090,7 +3110,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>2011</v>
       </c>
       <c r="B25" t="s">
@@ -3101,7 +3121,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>2012</v>
       </c>
       <c r="B26" t="s">
@@ -3112,7 +3132,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>2013</v>
       </c>
       <c r="B27" t="s">
@@ -3123,7 +3143,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>2014</v>
       </c>
       <c r="B28" t="s">
@@ -3134,7 +3154,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>2015</v>
       </c>
       <c r="B29" t="s">
@@ -3145,7 +3165,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>2016</v>
       </c>
       <c r="B30" t="s">
@@ -3156,7 +3176,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>3001</v>
       </c>
       <c r="B31" t="s">
@@ -3167,7 +3187,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>3002</v>
       </c>
       <c r="B32" t="s">
@@ -3178,7 +3198,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>3003</v>
       </c>
       <c r="B33" t="s">
@@ -3189,7 +3209,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>3004</v>
       </c>
       <c r="B34" t="s">
@@ -3200,7 +3220,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>3005</v>
       </c>
       <c r="B35" t="s">
@@ -3211,7 +3231,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>3006</v>
       </c>
       <c r="B36" t="s">
@@ -3222,7 +3242,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>3007</v>
       </c>
       <c r="B37" t="s">
@@ -3233,7 +3253,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>3008</v>
       </c>
       <c r="B38" t="s">
@@ -3244,7 +3264,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>3009</v>
       </c>
       <c r="B39" t="s">
@@ -3255,7 +3275,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>3010</v>
       </c>
       <c r="B40" t="s">
@@ -3266,7 +3286,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>3011</v>
       </c>
       <c r="B41" t="s">
@@ -3277,7 +3297,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>3012</v>
       </c>
       <c r="B42" t="s">
@@ -3288,7 +3308,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>3013</v>
       </c>
       <c r="B43" t="s">
@@ -3299,7 +3319,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>3014</v>
       </c>
       <c r="B44" t="s">
@@ -3310,7 +3330,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>3015</v>
       </c>
       <c r="B45" t="s">
@@ -3321,7 +3341,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>3016</v>
       </c>
       <c r="B46" t="s">
@@ -3332,7 +3352,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>3017</v>
       </c>
       <c r="B47" t="s">
@@ -3343,7 +3363,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>3018</v>
       </c>
       <c r="B48" t="s">
@@ -3354,7 +3374,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>3019</v>
       </c>
       <c r="B49" t="s">
@@ -3365,7 +3385,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>3020</v>
       </c>
       <c r="B50" t="s">
@@ -3376,7 +3396,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>3021</v>
       </c>
       <c r="B51" t="s">
@@ -3387,7 +3407,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>3022</v>
       </c>
       <c r="B52" t="s">
@@ -3398,7 +3418,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>3023</v>
       </c>
       <c r="B53" t="s">
@@ -3409,7 +3429,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>3024</v>
       </c>
       <c r="B54" t="s">
@@ -3420,7 +3440,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>3025</v>
       </c>
       <c r="B55" t="s">
@@ -3431,7 +3451,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>3026</v>
       </c>
       <c r="B56" t="s">
@@ -3442,7 +3462,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>3027</v>
       </c>
       <c r="B57" t="s">
@@ -3453,7 +3473,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>3028</v>
       </c>
       <c r="B58" t="s">
@@ -3464,7 +3484,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>3029</v>
       </c>
       <c r="B59" t="s">
@@ -3475,7 +3495,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>3030</v>
       </c>
       <c r="B60" t="s">
@@ -3486,7 +3506,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>3031</v>
       </c>
       <c r="B61" t="s">
@@ -3497,7 +3517,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>3032</v>
       </c>
       <c r="B62" t="s">
@@ -3508,7 +3528,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>3033</v>
       </c>
       <c r="B63" t="s">
@@ -3519,7 +3539,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>3034</v>
       </c>
       <c r="B64" t="s">
@@ -3530,7 +3550,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>3035</v>
       </c>
       <c r="B65" t="s">
@@ -3541,7 +3561,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>3036</v>
       </c>
       <c r="B66" t="s">
@@ -3552,7 +3572,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>3037</v>
       </c>
       <c r="B67" t="s">
@@ -3563,7 +3583,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>3038</v>
       </c>
       <c r="B68" t="s">
@@ -3574,7 +3594,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>3039</v>
       </c>
       <c r="B69" t="s">
@@ -3585,7 +3605,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>3040</v>
       </c>
       <c r="B70" t="s">
@@ -3596,7 +3616,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>4001</v>
       </c>
       <c r="B71" t="s">
@@ -3607,7 +3627,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>4002</v>
       </c>
       <c r="B72" t="s">
@@ -3618,7 +3638,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>4003</v>
       </c>
       <c r="B73" t="s">
@@ -3629,7 +3649,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>4004</v>
       </c>
       <c r="B74" t="s">
@@ -3640,7 +3660,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>4005</v>
       </c>
       <c r="B75" t="s">
@@ -3651,7 +3671,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>4006</v>
       </c>
       <c r="B76" t="s">
@@ -3662,7 +3682,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>4007</v>
       </c>
       <c r="B77" t="s">
@@ -3673,7 +3693,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>4008</v>
       </c>
       <c r="B78" t="s">
@@ -3684,7 +3704,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>4009</v>
       </c>
       <c r="B79" t="s">
@@ -3695,7 +3715,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>5001</v>
       </c>
       <c r="B80" t="s">
@@ -3706,7 +3726,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>5002</v>
       </c>
       <c r="B81" t="s">
@@ -3717,7 +3737,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>5003</v>
       </c>
       <c r="B82" t="s">
@@ -3728,7 +3748,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>5004</v>
       </c>
       <c r="B83" t="s">
@@ -3739,7 +3759,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>5005</v>
       </c>
       <c r="B84" t="s">
@@ -3750,7 +3770,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>5006</v>
       </c>
       <c r="B85" t="s">
@@ -3761,7 +3781,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>5007</v>
       </c>
       <c r="B86" t="s">
@@ -3772,7 +3792,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>5008</v>
       </c>
       <c r="B87" t="s">
@@ -3783,7 +3803,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>5009</v>
       </c>
       <c r="B88" t="s">
@@ -3794,7 +3814,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>5010</v>
       </c>
       <c r="B89" t="s">
@@ -3805,7 +3825,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>5011</v>
       </c>
       <c r="B90" t="s">
@@ -3816,7 +3836,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>5012</v>
       </c>
       <c r="B91" t="s">
@@ -3827,7 +3847,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>5013</v>
       </c>
       <c r="B92" t="s">
@@ -3838,7 +3858,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>5014</v>
       </c>
       <c r="B93" t="s">
@@ -3849,7 +3869,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>5015</v>
       </c>
       <c r="B94" t="s">
@@ -3860,7 +3880,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>5016</v>
       </c>
       <c r="B95" t="s">
@@ -3871,7 +3891,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>5017</v>
       </c>
       <c r="B96" t="s">
@@ -3882,7 +3902,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>5018</v>
       </c>
       <c r="B97" t="s">
@@ -3893,7 +3913,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>5019</v>
       </c>
       <c r="B98" t="s">
@@ -3904,7 +3924,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>5020</v>
       </c>
       <c r="B99" t="s">
@@ -3915,7 +3935,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>6001</v>
       </c>
       <c r="B100" t="s">
@@ -3926,7 +3946,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>6002</v>
       </c>
       <c r="B101" t="s">
@@ -3937,7 +3957,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>6003</v>
       </c>
       <c r="B102" t="s">
@@ -3948,7 +3968,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>6004</v>
       </c>
       <c r="B103" t="s">
@@ -3959,7 +3979,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>6005</v>
       </c>
       <c r="B104" t="s">
@@ -3970,7 +3990,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>6006</v>
       </c>
       <c r="B105" t="s">
@@ -3981,7 +4001,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>6007</v>
       </c>
       <c r="B106" t="s">
@@ -3992,7 +4012,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>6008</v>
       </c>
       <c r="B107" t="s">
@@ -4003,7 +4023,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>6009</v>
       </c>
       <c r="B108" t="s">
@@ -4014,7 +4034,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>6010</v>
       </c>
       <c r="B109" t="s">
@@ -4025,7 +4045,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>6011</v>
       </c>
       <c r="B110" t="s">
@@ -4036,7 +4056,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>6012</v>
       </c>
       <c r="B111" t="s">
@@ -4047,7 +4067,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>6013</v>
       </c>
       <c r="B112" t="s">
@@ -4058,7 +4078,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>6014</v>
       </c>
       <c r="B113" t="s">
@@ -4069,7 +4089,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>6015</v>
       </c>
       <c r="B114" t="s">
@@ -4080,7 +4100,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>6016</v>
       </c>
       <c r="B115" t="s">
@@ -4091,7 +4111,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>6017</v>
       </c>
       <c r="B116" t="s">
@@ -4102,7 +4122,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>6018</v>
       </c>
       <c r="B117" t="s">
@@ -4113,7 +4133,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>6019</v>
       </c>
       <c r="B118" t="s">
@@ -4124,7 +4144,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>6020</v>
       </c>
       <c r="B119" t="s">
@@ -4135,7 +4155,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>6021</v>
       </c>
       <c r="B120" t="s">
@@ -4146,7 +4166,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>6022</v>
       </c>
       <c r="B121" t="s">
@@ -4157,7 +4177,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>6023</v>
       </c>
       <c r="B122" t="s">
@@ -4168,7 +4188,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>6024</v>
       </c>
       <c r="B123" t="s">
@@ -4179,7 +4199,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>6025</v>
       </c>
       <c r="B124" t="s">
@@ -4190,7 +4210,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>6026</v>
       </c>
       <c r="B125" t="s">
@@ -4201,7 +4221,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>6027</v>
       </c>
       <c r="B126" t="s">
@@ -4212,7 +4232,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>6028</v>
       </c>
       <c r="B127" t="s">
@@ -4223,7 +4243,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>6029</v>
       </c>
       <c r="B128" t="s">
@@ -4234,7 +4254,7 @@
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>6030</v>
       </c>
       <c r="B129" t="s">
@@ -4245,7 +4265,7 @@
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>6031</v>
       </c>
       <c r="B130" t="s">
@@ -4256,7 +4276,7 @@
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>6032</v>
       </c>
       <c r="B131" t="s">
@@ -4267,7 +4287,7 @@
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>6033</v>
       </c>
       <c r="B132" t="s">
@@ -4278,7 +4298,7 @@
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>6034</v>
       </c>
       <c r="B133" t="s">
@@ -4289,7 +4309,7 @@
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>6035</v>
       </c>
       <c r="B134" t="s">
@@ -4300,7 +4320,7 @@
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>6036</v>
       </c>
       <c r="B135" t="s">
@@ -4311,7 +4331,7 @@
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>6037</v>
       </c>
       <c r="B136" t="s">
@@ -4322,7 +4342,7 @@
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>6038</v>
       </c>
       <c r="B137" t="s">
@@ -4333,7 +4353,7 @@
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>6039</v>
       </c>
       <c r="B138" t="s">
@@ -4344,7 +4364,7 @@
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>6040</v>
       </c>
       <c r="B139" t="s">
@@ -4355,7 +4375,7 @@
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>6041</v>
       </c>
       <c r="B140" t="s">
@@ -4366,7 +4386,7 @@
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>6042</v>
       </c>
       <c r="B141" t="s">
@@ -4377,7 +4397,7 @@
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>6043</v>
       </c>
       <c r="B142" t="s">
@@ -4388,7 +4408,7 @@
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>6044</v>
       </c>
       <c r="B143" t="s">
@@ -4399,7 +4419,7 @@
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>6045</v>
       </c>
       <c r="B144" t="s">
@@ -4410,7 +4430,7 @@
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>6046</v>
       </c>
       <c r="B145" t="s">
@@ -4421,7 +4441,7 @@
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>6047</v>
       </c>
       <c r="B146" t="s">
@@ -4432,7 +4452,7 @@
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>6048</v>
       </c>
       <c r="B147" t="s">
@@ -4443,7 +4463,7 @@
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>6049</v>
       </c>
       <c r="B148" t="s">
@@ -4454,7 +4474,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>6050</v>
       </c>
       <c r="B149" t="s">
@@ -4465,7 +4485,7 @@
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>6051</v>
       </c>
       <c r="B150" t="s">
@@ -4476,7 +4496,7 @@
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>6052</v>
       </c>
       <c r="B151" t="s">
@@ -4487,7 +4507,7 @@
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>6053</v>
       </c>
       <c r="B152" t="s">
@@ -4498,7 +4518,7 @@
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>6054</v>
       </c>
       <c r="B153" t="s">
@@ -4509,7 +4529,7 @@
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>6055</v>
       </c>
       <c r="B154" t="s">
@@ -4520,7 +4540,7 @@
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>6056</v>
       </c>
       <c r="B155" t="s">
@@ -4531,7 +4551,7 @@
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>6057</v>
       </c>
       <c r="B156" t="s">
@@ -4542,7 +4562,7 @@
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>6058</v>
       </c>
       <c r="B157" t="s">
@@ -4553,7 +4573,7 @@
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>6059</v>
       </c>
       <c r="B158" t="s">
@@ -4564,7 +4584,7 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>6060</v>
       </c>
       <c r="B159" t="s">
@@ -4575,7 +4595,7 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>6061</v>
       </c>
       <c r="B160" t="s">
@@ -4586,7 +4606,7 @@
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>6062</v>
       </c>
       <c r="B161" t="s">
@@ -4597,7 +4617,7 @@
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>6063</v>
       </c>
       <c r="B162" t="s">
@@ -4608,7 +4628,7 @@
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>6064</v>
       </c>
       <c r="B163" t="s">
@@ -4619,7 +4639,7 @@
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>6065</v>
       </c>
       <c r="B164" t="s">
@@ -4630,7 +4650,7 @@
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>6066</v>
       </c>
       <c r="B165" t="s">
@@ -4641,7 +4661,7 @@
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>6067</v>
       </c>
       <c r="B166" t="s">
@@ -4652,7 +4672,7 @@
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>6068</v>
       </c>
       <c r="B167" t="s">
@@ -4663,7 +4683,7 @@
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>6069</v>
       </c>
       <c r="B168" t="s">
@@ -4674,7 +4694,7 @@
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>6070</v>
       </c>
       <c r="B169" t="s">
@@ -4685,7 +4705,7 @@
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>6071</v>
       </c>
       <c r="B170" t="s">
@@ -4696,7 +4716,7 @@
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>6072</v>
       </c>
       <c r="B171" t="s">
@@ -4707,7 +4727,7 @@
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>6073</v>
       </c>
       <c r="B172" t="s">
@@ -4718,7 +4738,7 @@
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>6074</v>
       </c>
       <c r="B173" t="s">
@@ -4729,7 +4749,7 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>6075</v>
       </c>
       <c r="B174" t="s">
@@ -4740,7 +4760,7 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>6076</v>
       </c>
       <c r="B175" t="s">
@@ -4751,7 +4771,7 @@
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>6077</v>
       </c>
       <c r="B176" t="s">
@@ -4762,7 +4782,7 @@
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>6078</v>
       </c>
       <c r="B177" t="s">
@@ -4773,7 +4793,7 @@
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>6079</v>
       </c>
       <c r="B178" t="s">
@@ -4784,7 +4804,7 @@
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>6080</v>
       </c>
       <c r="B179" t="s">
@@ -4795,7 +4815,7 @@
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>6081</v>
       </c>
       <c r="B180" t="s">
@@ -4806,7 +4826,7 @@
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>6082</v>
       </c>
       <c r="B181" t="s">
@@ -4817,7 +4837,7 @@
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>6083</v>
       </c>
       <c r="B182" t="s">
@@ -4828,7 +4848,7 @@
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>6084</v>
       </c>
       <c r="B183" t="s">
@@ -4839,7 +4859,7 @@
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>6085</v>
       </c>
       <c r="B184" t="s">
@@ -4850,7 +4870,7 @@
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>6086</v>
       </c>
       <c r="B185" t="s">
@@ -4861,7 +4881,7 @@
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>6087</v>
       </c>
       <c r="B186" t="s">
@@ -4872,7 +4892,7 @@
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>6088</v>
       </c>
       <c r="B187" t="s">
@@ -4883,7 +4903,7 @@
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>7001</v>
       </c>
       <c r="B188" t="s">
@@ -4894,7 +4914,7 @@
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>7002</v>
       </c>
       <c r="B189" t="s">
@@ -4905,7 +4925,7 @@
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>7003</v>
       </c>
       <c r="B190" t="s">
@@ -4916,7 +4936,7 @@
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>7004</v>
       </c>
       <c r="B191" t="s">
@@ -4927,7 +4947,7 @@
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>7005</v>
       </c>
       <c r="B192" t="s">
@@ -4938,7 +4958,7 @@
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>7006</v>
       </c>
       <c r="B193" t="s">
@@ -4949,7 +4969,7 @@
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>7007</v>
       </c>
       <c r="B194" t="s">
@@ -4960,7 +4980,7 @@
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>7008</v>
       </c>
       <c r="B195" t="s">
@@ -4971,7 +4991,7 @@
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>7009</v>
       </c>
       <c r="B196" t="s">
@@ -4982,7 +5002,7 @@
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>7010</v>
       </c>
       <c r="B197" t="s">
@@ -4993,7 +5013,7 @@
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>7011</v>
       </c>
       <c r="B198" t="s">
@@ -5004,7 +5024,7 @@
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>7012</v>
       </c>
       <c r="B199" t="s">
@@ -5015,7 +5035,7 @@
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>7013</v>
       </c>
       <c r="B200" t="s">
@@ -5026,7 +5046,7 @@
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>7014</v>
       </c>
       <c r="B201" t="s">
@@ -5037,7 +5057,7 @@
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>7015</v>
       </c>
       <c r="B202" t="s">
@@ -5048,7 +5068,7 @@
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>7016</v>
       </c>
       <c r="B203" t="s">
@@ -5059,7 +5079,7 @@
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>7017</v>
       </c>
       <c r="B204" t="s">
@@ -5070,7 +5090,7 @@
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>7018</v>
       </c>
       <c r="B205" t="s">
@@ -5081,7 +5101,7 @@
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>7019</v>
       </c>
       <c r="B206" t="s">
@@ -5092,7 +5112,7 @@
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>7020</v>
       </c>
       <c r="B207" t="s">
@@ -5103,7 +5123,7 @@
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>7021</v>
       </c>
       <c r="B208" t="s">
@@ -5114,7 +5134,7 @@
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>7022</v>
       </c>
       <c r="B209" t="s">
@@ -5125,7 +5145,7 @@
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>7023</v>
       </c>
       <c r="B210" t="s">
@@ -5136,7 +5156,7 @@
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>7024</v>
       </c>
       <c r="B211" t="s">
@@ -5147,7 +5167,7 @@
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>7025</v>
       </c>
       <c r="B212" t="s">
@@ -5158,7 +5178,7 @@
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>7026</v>
       </c>
       <c r="B213" t="s">
@@ -5169,7 +5189,7 @@
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>7027</v>
       </c>
       <c r="B214" t="s">
@@ -5180,7 +5200,7 @@
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>7028</v>
       </c>
       <c r="B215" t="s">
@@ -5191,7 +5211,7 @@
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>7029</v>
       </c>
       <c r="B216" t="s">
@@ -5202,7 +5222,7 @@
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>7030</v>
       </c>
       <c r="B217" t="s">
@@ -5213,7 +5233,7 @@
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>7031</v>
       </c>
       <c r="B218" t="s">
@@ -5224,7 +5244,7 @@
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>7032</v>
       </c>
       <c r="B219" t="s">
@@ -5235,7 +5255,7 @@
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>7033</v>
       </c>
       <c r="B220" t="s">
@@ -5246,7 +5266,7 @@
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>7034</v>
       </c>
       <c r="B221" t="s">
@@ -5257,7 +5277,7 @@
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>7035</v>
       </c>
       <c r="B222" t="s">
@@ -5268,7 +5288,7 @@
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>7036</v>
       </c>
       <c r="B223" t="s">
@@ -5279,7 +5299,7 @@
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>7037</v>
       </c>
       <c r="B224" t="s">
@@ -5290,7 +5310,7 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>7038</v>
       </c>
       <c r="B225" t="s">
@@ -5301,7 +5321,7 @@
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>7039</v>
       </c>
       <c r="B226" t="s">
@@ -5312,7 +5332,7 @@
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>7040</v>
       </c>
       <c r="B227" t="s">
@@ -5323,7 +5343,7 @@
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>7041</v>
       </c>
       <c r="B228" t="s">
@@ -5334,7 +5354,7 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>7042</v>
       </c>
       <c r="B229" t="s">
@@ -5345,7 +5365,7 @@
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>7043</v>
       </c>
       <c r="B230" t="s">
@@ -5356,7 +5376,7 @@
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>7044</v>
       </c>
       <c r="B231" t="s">
@@ -5367,7 +5387,7 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>7045</v>
       </c>
       <c r="B232" t="s">
@@ -5378,7 +5398,7 @@
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>7046</v>
       </c>
       <c r="B233" t="s">
@@ -5389,7 +5409,7 @@
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>7047</v>
       </c>
       <c r="B234" t="s">
@@ -5400,7 +5420,7 @@
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>7048</v>
       </c>
       <c r="B235" t="s">
@@ -5411,7 +5431,7 @@
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>7049</v>
       </c>
       <c r="B236" t="s">
@@ -5422,7 +5442,7 @@
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>7050</v>
       </c>
       <c r="B237" t="s">
@@ -5433,7 +5453,7 @@
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>7051</v>
       </c>
       <c r="B238" t="s">
@@ -5444,7 +5464,7 @@
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>7052</v>
       </c>
       <c r="B239" t="s">
@@ -5455,7 +5475,7 @@
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>7053</v>
       </c>
       <c r="B240" t="s">
@@ -5466,7 +5486,7 @@
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>7054</v>
       </c>
       <c r="B241" t="s">
@@ -5477,7 +5497,7 @@
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>7055</v>
       </c>
       <c r="B242" t="s">
@@ -5488,7 +5508,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>7056</v>
       </c>
       <c r="B243" t="s">
@@ -5499,7 +5519,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>7057</v>
       </c>
       <c r="B244" t="s">
@@ -5510,7 +5530,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>7058</v>
       </c>
       <c r="B245" t="s">
@@ -5521,7 +5541,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>7059</v>
       </c>
       <c r="B246" t="s">
@@ -5532,7 +5552,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>7060</v>
       </c>
       <c r="B247" t="s">
@@ -5543,7 +5563,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>7061</v>
       </c>
       <c r="B248" t="s">
@@ -5554,7 +5574,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>7062</v>
       </c>
       <c r="B249" t="s">
@@ -5565,7 +5585,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>7063</v>
       </c>
       <c r="B250" t="s">
@@ -5576,7 +5596,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>7064</v>
       </c>
       <c r="B251" t="s">
@@ -5587,7 +5607,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>7065</v>
       </c>
       <c r="B252" t="s">
@@ -5598,7 +5618,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>7066</v>
       </c>
       <c r="B253" t="s">
@@ -5609,7 +5629,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>7067</v>
       </c>
       <c r="B254" t="s">
@@ -5620,7 +5640,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>7068</v>
       </c>
       <c r="B255" t="s">
@@ -5631,7 +5651,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="4">
         <v>7069</v>
       </c>
       <c r="B256" t="s">
@@ -5642,7 +5662,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="4">
         <v>7070</v>
       </c>
       <c r="B257" t="s">
@@ -5665,20 +5685,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>268</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5686,7 +5707,7 @@
       <c r="A2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="4">
         <v>9001</v>
       </c>
     </row>
@@ -5694,7 +5715,7 @@
       <c r="A3" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="4">
         <v>9002</v>
       </c>
     </row>
@@ -5702,7 +5723,7 @@
       <c r="A4" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="4">
         <v>9003</v>
       </c>
     </row>
@@ -5710,7 +5731,7 @@
       <c r="A5" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>9004</v>
       </c>
     </row>
@@ -5718,7 +5739,7 @@
       <c r="A6" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>9005</v>
       </c>
     </row>
@@ -5726,7 +5747,7 @@
       <c r="A7" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>9006</v>
       </c>
     </row>
@@ -5734,7 +5755,7 @@
       <c r="A8" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="4">
         <v>9007</v>
       </c>
     </row>
@@ -5742,7 +5763,7 @@
       <c r="A9" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>9008</v>
       </c>
     </row>
@@ -5758,12 +5779,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -5773,7 +5795,7 @@
       <c r="B1" t="s">
         <v>275</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -5784,7 +5806,7 @@
       <c r="B2" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -5795,7 +5817,7 @@
       <c r="B3" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
@@ -5806,7 +5828,7 @@
       <c r="B4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <v>3</v>
       </c>
     </row>
@@ -5817,7 +5839,7 @@
       <c r="B5" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <v>4</v>
       </c>
     </row>
@@ -5828,7 +5850,7 @@
       <c r="B6" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <v>5</v>
       </c>
     </row>
@@ -5839,7 +5861,7 @@
       <c r="B7" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <v>6</v>
       </c>
     </row>
@@ -5850,2217 +5872,2176 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B262"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>536</v>
+        <v>807</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>277</v>
+      <c r="B2" s="1" t="s">
+        <v>802</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>278</v>
+      <c r="B3" s="1" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>279</v>
+      <c r="B4" s="1" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>280</v>
+      <c r="B5" s="1" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
-        <v>150</v>
-      </c>
-      <c r="B151" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>151</v>
-      </c>
-      <c r="B152" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>152</v>
-      </c>
-      <c r="B153" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>153</v>
-      </c>
-      <c r="B154" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>154</v>
-      </c>
-      <c r="B155" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>155</v>
-      </c>
-      <c r="B156" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>156</v>
-      </c>
-      <c r="B157" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>157</v>
-      </c>
-      <c r="B158" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>158</v>
-      </c>
-      <c r="B159" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>159</v>
-      </c>
-      <c r="B160" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>160</v>
-      </c>
-      <c r="B161" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
-        <v>161</v>
-      </c>
-      <c r="B162" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
-        <v>162</v>
-      </c>
-      <c r="B163" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>163</v>
-      </c>
-      <c r="B164" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>164</v>
-      </c>
-      <c r="B165" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>165</v>
-      </c>
-      <c r="B166" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>166</v>
-      </c>
-      <c r="B167" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
-        <v>167</v>
-      </c>
-      <c r="B168" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>168</v>
-      </c>
-      <c r="B169" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>169</v>
-      </c>
-      <c r="B170" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
-        <v>170</v>
-      </c>
-      <c r="B171" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
-        <v>171</v>
-      </c>
-      <c r="B172" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>172</v>
-      </c>
-      <c r="B173" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
-        <v>173</v>
-      </c>
-      <c r="B174" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>174</v>
-      </c>
-      <c r="B175" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>175</v>
-      </c>
-      <c r="B176" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
-        <v>176</v>
-      </c>
-      <c r="B177" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
-        <v>177</v>
-      </c>
-      <c r="B178" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
-        <v>178</v>
-      </c>
-      <c r="B179" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
-        <v>179</v>
-      </c>
-      <c r="B180" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
-        <v>180</v>
-      </c>
-      <c r="B181" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
-        <v>181</v>
-      </c>
-      <c r="B182" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
-        <v>182</v>
-      </c>
-      <c r="B183" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
-        <v>183</v>
-      </c>
-      <c r="B184" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
-        <v>184</v>
-      </c>
-      <c r="B185" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>185</v>
-      </c>
-      <c r="B186" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>186</v>
-      </c>
-      <c r="B187" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>187</v>
-      </c>
-      <c r="B188" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>188</v>
-      </c>
-      <c r="B189" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>189</v>
-      </c>
-      <c r="B190" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
-        <v>190</v>
-      </c>
-      <c r="B191" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
-        <v>191</v>
-      </c>
-      <c r="B192" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
-        <v>192</v>
-      </c>
-      <c r="B193" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>193</v>
-      </c>
-      <c r="B194" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
-        <v>194</v>
-      </c>
-      <c r="B195" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>195</v>
-      </c>
-      <c r="B196" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>196</v>
-      </c>
-      <c r="B197" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
-        <v>197</v>
-      </c>
-      <c r="B198" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>198</v>
-      </c>
-      <c r="B199" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <v>199</v>
-      </c>
-      <c r="B200" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
-        <v>200</v>
-      </c>
-      <c r="B201" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
-        <v>201</v>
-      </c>
-      <c r="B202" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>202</v>
-      </c>
-      <c r="B203" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>203</v>
-      </c>
-      <c r="B204" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>204</v>
-      </c>
-      <c r="B205" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>205</v>
-      </c>
-      <c r="B206" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>206</v>
-      </c>
-      <c r="B207" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>207</v>
-      </c>
-      <c r="B208" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
-        <v>208</v>
-      </c>
-      <c r="B209" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
-        <v>209</v>
-      </c>
-      <c r="B210" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
-        <v>210</v>
-      </c>
-      <c r="B211" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
-        <v>211</v>
-      </c>
-      <c r="B212" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
-        <v>212</v>
-      </c>
-      <c r="B213" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
-        <v>213</v>
-      </c>
-      <c r="B214" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
-        <v>214</v>
-      </c>
-      <c r="B215" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
-        <v>215</v>
-      </c>
-      <c r="B216" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
-        <v>216</v>
-      </c>
-      <c r="B217" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
-        <v>217</v>
-      </c>
-      <c r="B218" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
-        <v>218</v>
-      </c>
-      <c r="B219" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
-        <v>219</v>
-      </c>
-      <c r="B220" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
-        <v>220</v>
-      </c>
-      <c r="B221" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
-        <v>221</v>
-      </c>
-      <c r="B222" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
-        <v>222</v>
-      </c>
-      <c r="B223" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
-        <v>223</v>
-      </c>
-      <c r="B224" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
-        <v>224</v>
-      </c>
-      <c r="B225" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
-        <v>225</v>
-      </c>
-      <c r="B226" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
-        <v>226</v>
-      </c>
-      <c r="B227" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
-        <v>227</v>
-      </c>
-      <c r="B228" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
-        <v>228</v>
-      </c>
-      <c r="B229" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>229</v>
-      </c>
-      <c r="B230" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>230</v>
-      </c>
-      <c r="B231" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>231</v>
-      </c>
-      <c r="B232" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>232</v>
-      </c>
-      <c r="B233" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
-        <v>233</v>
-      </c>
-      <c r="B234" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
-        <v>234</v>
-      </c>
-      <c r="B235" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
-        <v>236</v>
-      </c>
-      <c r="B237" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
-        <v>237</v>
-      </c>
-      <c r="B238" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
-        <v>238</v>
-      </c>
-      <c r="B239" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
-        <v>239</v>
-      </c>
-      <c r="B240" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
-        <v>240</v>
-      </c>
-      <c r="B241" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
-        <v>241</v>
-      </c>
-      <c r="B242" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
-        <v>242</v>
-      </c>
-      <c r="B243" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
-        <v>243</v>
-      </c>
-      <c r="B244" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
-        <v>244</v>
-      </c>
-      <c r="B245" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
-        <v>245</v>
-      </c>
-      <c r="B246" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
-        <v>246</v>
-      </c>
-      <c r="B247" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
-        <v>247</v>
-      </c>
-      <c r="B248" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
-        <v>248</v>
-      </c>
-      <c r="B249" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
-        <v>249</v>
-      </c>
-      <c r="B250" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
-        <v>250</v>
-      </c>
-      <c r="B251" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>251</v>
-      </c>
-      <c r="B252" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>252</v>
-      </c>
-      <c r="B253" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
-        <v>253</v>
-      </c>
-      <c r="B254" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>254</v>
-      </c>
-      <c r="B255" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>255</v>
-      </c>
-      <c r="B256" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>256</v>
-      </c>
-      <c r="B257" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>257</v>
-      </c>
-      <c r="B258" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>258</v>
-      </c>
-      <c r="B259" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260">
-        <v>259</v>
-      </c>
-      <c r="B260" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261">
-        <v>260</v>
-      </c>
-      <c r="B261" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262">
-        <v>261</v>
-      </c>
-      <c r="B262" t="s">
-        <v>256</v>
+      <c r="B6" s="1" t="s">
+        <v>806</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="63.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>9001</v>
+      <c r="A2" s="4">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>538</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9002</v>
+      <c r="A3" s="4">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>539</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>9003</v>
+      <c r="A4" s="4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>540</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9004</v>
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>541</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>9005</v>
+      <c r="A6" s="4">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>542</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>9006</v>
+      <c r="A7" s="4">
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>9007</v>
+      <c r="A8" s="4">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>544</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>9008</v>
+      <c r="A9" s="4">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>545</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9009</v>
+      <c r="A10" s="4">
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>546</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9010</v>
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>547</v>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
+        <v>241</v>
+      </c>
+      <c r="B242" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
+        <v>242</v>
+      </c>
+      <c r="B243" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
+        <v>243</v>
+      </c>
+      <c r="B244" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
+        <v>244</v>
+      </c>
+      <c r="B245" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
+        <v>245</v>
+      </c>
+      <c r="B246" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
+        <v>246</v>
+      </c>
+      <c r="B247" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
+        <v>247</v>
+      </c>
+      <c r="B248" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
+        <v>248</v>
+      </c>
+      <c r="B249" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
+        <v>249</v>
+      </c>
+      <c r="B250" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
+        <v>250</v>
+      </c>
+      <c r="B251" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
+        <v>251</v>
+      </c>
+      <c r="B252" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
+        <v>252</v>
+      </c>
+      <c r="B253" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
+        <v>253</v>
+      </c>
+      <c r="B254" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
+        <v>255</v>
+      </c>
+      <c r="B256" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
+        <v>256</v>
+      </c>
+      <c r="B257" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
+        <v>257</v>
+      </c>
+      <c r="B258" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
+        <v>258</v>
+      </c>
+      <c r="B259" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
+        <v>259</v>
+      </c>
+      <c r="B260" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
+        <v>260</v>
+      </c>
+      <c r="B261" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
+        <v>261</v>
+      </c>
+      <c r="B262" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -8070,20 +8051,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B255"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="65.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>9001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>9002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>9003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>9004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>9005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>9006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>9007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>9008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B255"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>267</v>
       </c>
       <c r="B1" t="s">
@@ -8091,7 +8179,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>1000</v>
       </c>
       <c r="B2" t="s">
@@ -8099,7 +8187,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>1001</v>
       </c>
       <c r="B3" t="s">
@@ -8107,7 +8195,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>1002</v>
       </c>
       <c r="B4" t="s">
@@ -8115,7 +8203,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>1003</v>
       </c>
       <c r="B5" t="s">
@@ -8123,7 +8211,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>1004</v>
       </c>
       <c r="B6" t="s">
@@ -8131,7 +8219,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>1005</v>
       </c>
       <c r="B7" t="s">
@@ -8139,7 +8227,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>1006</v>
       </c>
       <c r="B8" t="s">
@@ -8147,7 +8235,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>1007</v>
       </c>
       <c r="B9" t="s">
@@ -8155,7 +8243,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>1008</v>
       </c>
       <c r="B10" t="s">
@@ -8163,7 +8251,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>1009</v>
       </c>
       <c r="B11" t="s">
@@ -8171,7 +8259,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>1010</v>
       </c>
       <c r="B12" t="s">
@@ -8179,7 +8267,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>1011</v>
       </c>
       <c r="B13" t="s">
@@ -8187,7 +8275,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>1100</v>
       </c>
       <c r="B14" t="s">
@@ -8195,7 +8283,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>2000</v>
       </c>
       <c r="B15" t="s">
@@ -8203,7 +8291,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>2100</v>
       </c>
       <c r="B16" t="s">
@@ -8211,7 +8299,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="4">
         <v>2101</v>
       </c>
       <c r="B17" t="s">
@@ -8219,7 +8307,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="4">
         <v>2102</v>
       </c>
       <c r="B18" t="s">
@@ -8227,7 +8315,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="4">
         <v>2103</v>
       </c>
       <c r="B19" t="s">
@@ -8235,7 +8323,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="4">
         <v>2104</v>
       </c>
       <c r="B20" t="s">
@@ -8243,7 +8331,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="4">
         <v>2105</v>
       </c>
       <c r="B21" t="s">
@@ -8251,7 +8339,7 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="4">
         <v>2106</v>
       </c>
       <c r="B22" t="s">
@@ -8259,7 +8347,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="4">
         <v>2107</v>
       </c>
       <c r="B23" t="s">
@@ -8267,7 +8355,7 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="4">
         <v>2108</v>
       </c>
       <c r="B24" t="s">
@@ -8275,7 +8363,7 @@
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="4">
         <v>2109</v>
       </c>
       <c r="B25" t="s">
@@ -8283,7 +8371,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="4">
         <v>2110</v>
       </c>
       <c r="B26" t="s">
@@ -8291,7 +8379,7 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="4">
         <v>2111</v>
       </c>
       <c r="B27" t="s">
@@ -8299,7 +8387,7 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="4">
         <v>2112</v>
       </c>
       <c r="B28" t="s">
@@ -8307,7 +8395,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="4">
         <v>2113</v>
       </c>
       <c r="B29" t="s">
@@ -8315,7 +8403,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="4">
         <v>2114</v>
       </c>
       <c r="B30" t="s">
@@ -8323,7 +8411,7 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="4">
         <v>2200</v>
       </c>
       <c r="B31" t="s">
@@ -8331,7 +8419,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="4">
         <v>2201</v>
       </c>
       <c r="B32" t="s">
@@ -8339,7 +8427,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="4">
         <v>2202</v>
       </c>
       <c r="B33" t="s">
@@ -8347,7 +8435,7 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="4">
         <v>2203</v>
       </c>
       <c r="B34" t="s">
@@ -8355,7 +8443,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="4">
         <v>2204</v>
       </c>
       <c r="B35" t="s">
@@ -8363,7 +8451,7 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="4">
         <v>2205</v>
       </c>
       <c r="B36" t="s">
@@ -8371,7 +8459,7 @@
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="4">
         <v>2206</v>
       </c>
       <c r="B37" t="s">
@@ -8379,7 +8467,7 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="4">
         <v>2207</v>
       </c>
       <c r="B38" t="s">
@@ -8387,7 +8475,7 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="4">
         <v>2208</v>
       </c>
       <c r="B39" t="s">
@@ -8395,7 +8483,7 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="4">
         <v>2209</v>
       </c>
       <c r="B40" t="s">
@@ -8403,7 +8491,7 @@
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="4">
         <v>2210</v>
       </c>
       <c r="B41" t="s">
@@ -8411,7 +8499,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="4">
         <v>2211</v>
       </c>
       <c r="B42" t="s">
@@ -8419,7 +8507,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="4">
         <v>2212</v>
       </c>
       <c r="B43" t="s">
@@ -8427,7 +8515,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="4">
         <v>2213</v>
       </c>
       <c r="B44" t="s">
@@ -8435,7 +8523,7 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="4">
         <v>3000</v>
       </c>
       <c r="B45" t="s">
@@ -8443,7 +8531,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="4">
         <v>3100</v>
       </c>
       <c r="B46" t="s">
@@ -8451,7 +8539,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="4">
         <v>3101</v>
       </c>
       <c r="B47" t="s">
@@ -8459,7 +8547,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="4">
         <v>3102</v>
       </c>
       <c r="B48" t="s">
@@ -8467,7 +8555,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>3103</v>
       </c>
       <c r="B49" t="s">
@@ -8475,7 +8563,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>3104</v>
       </c>
       <c r="B50" t="s">
@@ -8483,7 +8571,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>3105</v>
       </c>
       <c r="B51" t="s">
@@ -8491,7 +8579,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>3106</v>
       </c>
       <c r="B52" t="s">
@@ -8499,7 +8587,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>3107</v>
       </c>
       <c r="B53" t="s">
@@ -8507,7 +8595,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>3108</v>
       </c>
       <c r="B54" t="s">
@@ -8515,7 +8603,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>3109</v>
       </c>
       <c r="B55" t="s">
@@ -8523,7 +8611,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>3110</v>
       </c>
       <c r="B56" t="s">
@@ -8531,7 +8619,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>3111</v>
       </c>
       <c r="B57" t="s">
@@ -8539,7 +8627,7 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>3200</v>
       </c>
       <c r="B58" t="s">
@@ -8547,7 +8635,7 @@
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>3201</v>
       </c>
       <c r="B59" t="s">
@@ -8555,7 +8643,7 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>3202</v>
       </c>
       <c r="B60" t="s">
@@ -8563,7 +8651,7 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>3203</v>
       </c>
       <c r="B61" t="s">
@@ -8571,7 +8659,7 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>3204</v>
       </c>
       <c r="B62" t="s">
@@ -8579,7 +8667,7 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>3205</v>
       </c>
       <c r="B63" t="s">
@@ -8587,7 +8675,7 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>3300</v>
       </c>
       <c r="B64" t="s">
@@ -8595,7 +8683,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>3301</v>
       </c>
       <c r="B65" t="s">
@@ -8603,7 +8691,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>3302</v>
       </c>
       <c r="B66" t="s">
@@ -8611,7 +8699,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>3303</v>
       </c>
       <c r="B67" t="s">
@@ -8619,7 +8707,7 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>3304</v>
       </c>
       <c r="B68" t="s">
@@ -8627,7 +8715,7 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>3305</v>
       </c>
       <c r="B69" t="s">
@@ -8635,7 +8723,7 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>3306</v>
       </c>
       <c r="B70" t="s">
@@ -8643,7 +8731,7 @@
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>3307</v>
       </c>
       <c r="B71" t="s">
@@ -8651,7 +8739,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>3308</v>
       </c>
       <c r="B72" t="s">
@@ -8659,7 +8747,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>3309</v>
       </c>
       <c r="B73" t="s">
@@ -8667,7 +8755,7 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>3310</v>
       </c>
       <c r="B74" t="s">
@@ -8675,7 +8763,7 @@
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>3311</v>
       </c>
       <c r="B75" t="s">
@@ -8683,7 +8771,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>3312</v>
       </c>
       <c r="B76" t="s">
@@ -8691,7 +8779,7 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>3313</v>
       </c>
       <c r="B77" t="s">
@@ -8699,7 +8787,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>3314</v>
       </c>
       <c r="B78" t="s">
@@ -8707,7 +8795,7 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>3315</v>
       </c>
       <c r="B79" t="s">
@@ -8715,7 +8803,7 @@
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>3316</v>
       </c>
       <c r="B80" t="s">
@@ -8723,7 +8811,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>3400</v>
       </c>
       <c r="B81" t="s">
@@ -8731,7 +8819,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>3401</v>
       </c>
       <c r="B82" t="s">
@@ -8739,7 +8827,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>3402</v>
       </c>
       <c r="B83" t="s">
@@ -8747,7 +8835,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>3403</v>
       </c>
       <c r="B84" t="s">
@@ -8755,7 +8843,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>3404</v>
       </c>
       <c r="B85" t="s">
@@ -8763,7 +8851,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>3405</v>
       </c>
       <c r="B86" t="s">
@@ -8771,7 +8859,7 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>3406</v>
       </c>
       <c r="B87" t="s">
@@ -8779,7 +8867,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>3407</v>
       </c>
       <c r="B88" t="s">
@@ -8787,7 +8875,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>3408</v>
       </c>
       <c r="B89" t="s">
@@ -8795,7 +8883,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>4000</v>
       </c>
       <c r="B90" t="s">
@@ -8803,7 +8891,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>4100</v>
       </c>
       <c r="B91" t="s">
@@ -8811,7 +8899,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>4101</v>
       </c>
       <c r="B92" t="s">
@@ -8819,7 +8907,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>4102</v>
       </c>
       <c r="B93" t="s">
@@ -8827,7 +8915,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>4103</v>
       </c>
       <c r="B94" t="s">
@@ -8835,7 +8923,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>4104</v>
       </c>
       <c r="B95" t="s">
@@ -8843,7 +8931,7 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>4105</v>
       </c>
       <c r="B96" t="s">
@@ -8851,7 +8939,7 @@
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>4106</v>
       </c>
       <c r="B97" t="s">
@@ -8859,7 +8947,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>4107</v>
       </c>
       <c r="B98" t="s">
@@ -8867,7 +8955,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>4108</v>
       </c>
       <c r="B99" t="s">
@@ -8875,7 +8963,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>4109</v>
       </c>
       <c r="B100" t="s">
@@ -8883,7 +8971,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>4110</v>
       </c>
       <c r="B101" t="s">
@@ -8891,7 +8979,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>4111</v>
       </c>
       <c r="B102" t="s">
@@ -8899,7 +8987,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>4112</v>
       </c>
       <c r="B103" t="s">
@@ -8907,7 +8995,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>4200</v>
       </c>
       <c r="B104" t="s">
@@ -8915,7 +9003,7 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>4201</v>
       </c>
       <c r="B105" t="s">
@@ -8923,7 +9011,7 @@
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>4202</v>
       </c>
       <c r="B106" t="s">
@@ -8931,7 +9019,7 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>4203</v>
       </c>
       <c r="B107" t="s">
@@ -8939,7 +9027,7 @@
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>4204</v>
       </c>
       <c r="B108" t="s">
@@ -8947,7 +9035,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>4205</v>
       </c>
       <c r="B109" t="s">
@@ -8955,7 +9043,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>4206</v>
       </c>
       <c r="B110" t="s">
@@ -8963,7 +9051,7 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>4207</v>
       </c>
       <c r="B111" t="s">
@@ -8971,7 +9059,7 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>4208</v>
       </c>
       <c r="B112" t="s">
@@ -8979,7 +9067,7 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>4209</v>
       </c>
       <c r="B113" t="s">
@@ -8987,7 +9075,7 @@
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>4210</v>
       </c>
       <c r="B114" t="s">
@@ -8995,7 +9083,7 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>4211</v>
       </c>
       <c r="B115" t="s">
@@ -9003,7 +9091,7 @@
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>4212</v>
       </c>
       <c r="B116" t="s">
@@ -9011,7 +9099,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>4213</v>
       </c>
       <c r="B117" t="s">
@@ -9019,7 +9107,7 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>4300</v>
       </c>
       <c r="B118" t="s">
@@ -9027,7 +9115,7 @@
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>4301</v>
       </c>
       <c r="B119" t="s">
@@ -9035,7 +9123,7 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>4302</v>
       </c>
       <c r="B120" t="s">
@@ -9043,7 +9131,7 @@
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>4303</v>
       </c>
       <c r="B121" t="s">
@@ -9051,7 +9139,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>4304</v>
       </c>
       <c r="B122" t="s">
@@ -9059,7 +9147,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>4305</v>
       </c>
       <c r="B123" t="s">
@@ -9067,7 +9155,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>4400</v>
       </c>
       <c r="B124" t="s">
@@ -9075,7 +9163,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>4401</v>
       </c>
       <c r="B125" t="s">
@@ -9083,7 +9171,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>4402</v>
       </c>
       <c r="B126" t="s">
@@ -9091,7 +9179,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>4403</v>
       </c>
       <c r="B127" t="s">
@@ -9099,7 +9187,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>4404</v>
       </c>
       <c r="B128" t="s">
@@ -9107,7 +9195,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>4405</v>
       </c>
       <c r="B129" t="s">
@@ -9115,7 +9203,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>4406</v>
       </c>
       <c r="B130" t="s">
@@ -9123,7 +9211,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>4407</v>
       </c>
       <c r="B131" t="s">
@@ -9131,7 +9219,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>4408</v>
       </c>
       <c r="B132" t="s">
@@ -9139,7 +9227,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>5000</v>
       </c>
       <c r="B133" t="s">
@@ -9147,7 +9235,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>5100</v>
       </c>
       <c r="B134" t="s">
@@ -9155,7 +9243,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>5101</v>
       </c>
       <c r="B135" t="s">
@@ -9163,7 +9251,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>5102</v>
       </c>
       <c r="B136" t="s">
@@ -9171,7 +9259,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>5103</v>
       </c>
       <c r="B137" t="s">
@@ -9179,7 +9267,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>5104</v>
       </c>
       <c r="B138" t="s">
@@ -9187,7 +9275,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>5105</v>
       </c>
       <c r="B139" t="s">
@@ -9195,7 +9283,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>5106</v>
       </c>
       <c r="B140" t="s">
@@ -9203,7 +9291,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>5107</v>
       </c>
       <c r="B141" t="s">
@@ -9211,7 +9299,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>5108</v>
       </c>
       <c r="B142" t="s">
@@ -9219,7 +9307,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>5109</v>
       </c>
       <c r="B143" t="s">
@@ -9227,7 +9315,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>5200</v>
       </c>
       <c r="B144" t="s">
@@ -9235,7 +9323,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>5201</v>
       </c>
       <c r="B145" t="s">
@@ -9243,7 +9331,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>5202</v>
       </c>
       <c r="B146" t="s">
@@ -9251,7 +9339,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>5203</v>
       </c>
       <c r="B147" t="s">
@@ -9259,7 +9347,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>5204</v>
       </c>
       <c r="B148" t="s">
@@ -9267,7 +9355,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>5205</v>
       </c>
       <c r="B149" t="s">
@@ -9275,7 +9363,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>5206</v>
       </c>
       <c r="B150" t="s">
@@ -9283,7 +9371,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>5207</v>
       </c>
       <c r="B151" t="s">
@@ -9291,7 +9379,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>5300</v>
       </c>
       <c r="B152" t="s">
@@ -9299,7 +9387,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>5301</v>
       </c>
       <c r="B153" t="s">
@@ -9307,7 +9395,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>5302</v>
       </c>
       <c r="B154" t="s">
@@ -9315,7 +9403,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>5303</v>
       </c>
       <c r="B155" t="s">
@@ -9323,7 +9411,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>5304</v>
       </c>
       <c r="B156" t="s">
@@ -9331,7 +9419,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>5305</v>
       </c>
       <c r="B157" t="s">
@@ -9339,7 +9427,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>5306</v>
       </c>
       <c r="B158" t="s">
@@ -9347,7 +9435,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>5307</v>
       </c>
       <c r="B159" t="s">
@@ -9355,7 +9443,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>5308</v>
       </c>
       <c r="B160" t="s">
@@ -9363,7 +9451,7 @@
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>6000</v>
       </c>
       <c r="B161" t="s">
@@ -9371,7 +9459,7 @@
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>6100</v>
       </c>
       <c r="B162" t="s">
@@ -9379,7 +9467,7 @@
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>6101</v>
       </c>
       <c r="B163" t="s">
@@ -9387,7 +9475,7 @@
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>6102</v>
       </c>
       <c r="B164" t="s">
@@ -9395,7 +9483,7 @@
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>6103</v>
       </c>
       <c r="B165" t="s">
@@ -9403,7 +9491,7 @@
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>6104</v>
       </c>
       <c r="B166" t="s">
@@ -9411,7 +9499,7 @@
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>6105</v>
       </c>
       <c r="B167" t="s">
@@ -9419,7 +9507,7 @@
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>6106</v>
       </c>
       <c r="B168" t="s">
@@ -9427,7 +9515,7 @@
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>6107</v>
       </c>
       <c r="B169" t="s">
@@ -9435,7 +9523,7 @@
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>6108</v>
       </c>
       <c r="B170" t="s">
@@ -9443,7 +9531,7 @@
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>6109</v>
       </c>
       <c r="B171" t="s">
@@ -9451,7 +9539,7 @@
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>6110</v>
       </c>
       <c r="B172" t="s">
@@ -9459,7 +9547,7 @@
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>6200</v>
       </c>
       <c r="B173" t="s">
@@ -9467,7 +9555,7 @@
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>6201</v>
       </c>
       <c r="B174" t="s">
@@ -9475,7 +9563,7 @@
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>6202</v>
       </c>
       <c r="B175" t="s">
@@ -9483,7 +9571,7 @@
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>7000</v>
       </c>
       <c r="B176" t="s">
@@ -9491,7 +9579,7 @@
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>7100</v>
       </c>
       <c r="B177" t="s">
@@ -9499,7 +9587,7 @@
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>7101</v>
       </c>
       <c r="B178" t="s">
@@ -9507,7 +9595,7 @@
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>7102</v>
       </c>
       <c r="B179" t="s">
@@ -9515,7 +9603,7 @@
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>7103</v>
       </c>
       <c r="B180" t="s">
@@ -9523,7 +9611,7 @@
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>7104</v>
       </c>
       <c r="B181" t="s">
@@ -9531,7 +9619,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>7105</v>
       </c>
       <c r="B182" t="s">
@@ -9539,7 +9627,7 @@
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>7106</v>
       </c>
       <c r="B183" t="s">
@@ -9547,7 +9635,7 @@
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="4">
         <v>7107</v>
       </c>
       <c r="B184" t="s">
@@ -9555,7 +9643,7 @@
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="4">
         <v>7108</v>
       </c>
       <c r="B185" t="s">
@@ -9563,7 +9651,7 @@
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="4">
         <v>7109</v>
       </c>
       <c r="B186" t="s">
@@ -9571,7 +9659,7 @@
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="4">
         <v>7110</v>
       </c>
       <c r="B187" t="s">
@@ -9579,7 +9667,7 @@
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="4">
         <v>7111</v>
       </c>
       <c r="B188" t="s">
@@ -9587,7 +9675,7 @@
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="4">
         <v>7112</v>
       </c>
       <c r="B189" t="s">
@@ -9595,7 +9683,7 @@
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="4">
         <v>7113</v>
       </c>
       <c r="B190" t="s">
@@ -9603,7 +9691,7 @@
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="4">
         <v>7114</v>
       </c>
       <c r="B191" t="s">
@@ -9611,7 +9699,7 @@
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="4">
         <v>7115</v>
       </c>
       <c r="B192" t="s">
@@ -9619,7 +9707,7 @@
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="4">
         <v>7116</v>
       </c>
       <c r="B193" t="s">
@@ -9627,7 +9715,7 @@
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="4">
         <v>7117</v>
       </c>
       <c r="B194" t="s">
@@ -9635,7 +9723,7 @@
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="4">
         <v>7118</v>
       </c>
       <c r="B195" t="s">
@@ -9643,7 +9731,7 @@
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="4">
         <v>7119</v>
       </c>
       <c r="B196" t="s">
@@ -9651,7 +9739,7 @@
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="4">
         <v>7120</v>
       </c>
       <c r="B197" t="s">
@@ -9659,7 +9747,7 @@
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="4">
         <v>7121</v>
       </c>
       <c r="B198" t="s">
@@ -9667,7 +9755,7 @@
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="4">
         <v>7122</v>
       </c>
       <c r="B199" t="s">
@@ -9675,7 +9763,7 @@
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="4">
         <v>7123</v>
       </c>
       <c r="B200" t="s">
@@ -9683,7 +9771,7 @@
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="4">
         <v>7124</v>
       </c>
       <c r="B201" t="s">
@@ -9691,7 +9779,7 @@
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="4">
         <v>7125</v>
       </c>
       <c r="B202" t="s">
@@ -9699,7 +9787,7 @@
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="4">
         <v>7126</v>
       </c>
       <c r="B203" t="s">
@@ -9707,7 +9795,7 @@
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="4">
         <v>7127</v>
       </c>
       <c r="B204" t="s">
@@ -9715,7 +9803,7 @@
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="4">
         <v>7128</v>
       </c>
       <c r="B205" t="s">
@@ -9723,7 +9811,7 @@
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="4">
         <v>7129</v>
       </c>
       <c r="B206" t="s">
@@ -9731,7 +9819,7 @@
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="4">
         <v>7130</v>
       </c>
       <c r="B207" t="s">
@@ -9739,7 +9827,7 @@
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="4">
         <v>7131</v>
       </c>
       <c r="B208" t="s">
@@ -9747,7 +9835,7 @@
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="4">
         <v>7132</v>
       </c>
       <c r="B209" t="s">
@@ -9755,7 +9843,7 @@
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="4">
         <v>7133</v>
       </c>
       <c r="B210" t="s">
@@ -9763,7 +9851,7 @@
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="4">
         <v>7134</v>
       </c>
       <c r="B211" t="s">
@@ -9771,7 +9859,7 @@
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="4">
         <v>7200</v>
       </c>
       <c r="B212" t="s">
@@ -9779,7 +9867,7 @@
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="4">
         <v>7201</v>
       </c>
       <c r="B213" t="s">
@@ -9787,7 +9875,7 @@
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="4">
         <v>7202</v>
       </c>
       <c r="B214" t="s">
@@ -9795,7 +9883,7 @@
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="4">
         <v>7203</v>
       </c>
       <c r="B215" t="s">
@@ -9803,7 +9891,7 @@
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="4">
         <v>7204</v>
       </c>
       <c r="B216" t="s">
@@ -9811,7 +9899,7 @@
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="4">
         <v>7205</v>
       </c>
       <c r="B217" t="s">
@@ -9819,7 +9907,7 @@
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="4">
         <v>7206</v>
       </c>
       <c r="B218" t="s">
@@ -9827,7 +9915,7 @@
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="4">
         <v>7207</v>
       </c>
       <c r="B219" t="s">
@@ -9835,7 +9923,7 @@
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="4">
         <v>7208</v>
       </c>
       <c r="B220" t="s">
@@ -9843,7 +9931,7 @@
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="4">
         <v>8000</v>
       </c>
       <c r="B221" t="s">
@@ -9851,7 +9939,7 @@
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="4">
         <v>8100</v>
       </c>
       <c r="B222" t="s">
@@ -9859,7 +9947,7 @@
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="4">
         <v>8101</v>
       </c>
       <c r="B223" t="s">
@@ -9867,7 +9955,7 @@
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="4">
         <v>8102</v>
       </c>
       <c r="B224" t="s">
@@ -9875,7 +9963,7 @@
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="4">
         <v>8103</v>
       </c>
       <c r="B225" t="s">
@@ -9883,7 +9971,7 @@
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="4">
         <v>8104</v>
       </c>
       <c r="B226" t="s">
@@ -9891,7 +9979,7 @@
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="4">
         <v>8105</v>
       </c>
       <c r="B227" t="s">
@@ -9899,7 +9987,7 @@
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="4">
         <v>8106</v>
       </c>
       <c r="B228" t="s">
@@ -9907,7 +9995,7 @@
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="4">
         <v>8107</v>
       </c>
       <c r="B229" t="s">
@@ -9915,7 +10003,7 @@
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="4">
         <v>8108</v>
       </c>
       <c r="B230" t="s">
@@ -9923,7 +10011,7 @@
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="4">
         <v>8109</v>
       </c>
       <c r="B231" t="s">
@@ -9931,7 +10019,7 @@
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="4">
         <v>8110</v>
       </c>
       <c r="B232" t="s">
@@ -9939,7 +10027,7 @@
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="4">
         <v>8200</v>
       </c>
       <c r="B233" t="s">
@@ -9947,7 +10035,7 @@
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="4">
         <v>8201</v>
       </c>
       <c r="B234" t="s">
@@ -9955,7 +10043,7 @@
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="4">
         <v>8202</v>
       </c>
       <c r="B235" t="s">
@@ -9963,7 +10051,7 @@
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="4">
         <v>8203</v>
       </c>
       <c r="B236" t="s">
@@ -9971,7 +10059,7 @@
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="4">
         <v>8204</v>
       </c>
       <c r="B237" t="s">
@@ -9979,7 +10067,7 @@
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="4">
         <v>8205</v>
       </c>
       <c r="B238" t="s">
@@ -9987,7 +10075,7 @@
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="4">
         <v>8206</v>
       </c>
       <c r="B239" t="s">
@@ -9995,7 +10083,7 @@
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="4">
         <v>8207</v>
       </c>
       <c r="B240" t="s">
@@ -10003,7 +10091,7 @@
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="4">
         <v>8208</v>
       </c>
       <c r="B241" t="s">
@@ -10011,7 +10099,7 @@
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="4">
         <v>8300</v>
       </c>
       <c r="B242" t="s">
@@ -10019,7 +10107,7 @@
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="4">
         <v>8301</v>
       </c>
       <c r="B243" t="s">
@@ -10027,7 +10115,7 @@
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="4">
         <v>8302</v>
       </c>
       <c r="B244" t="s">
@@ -10035,7 +10123,7 @@
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="4">
         <v>8303</v>
       </c>
       <c r="B245" t="s">
@@ -10043,7 +10131,7 @@
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="4">
         <v>8304</v>
       </c>
       <c r="B246" t="s">
@@ -10051,7 +10139,7 @@
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="4">
         <v>8400</v>
       </c>
       <c r="B247" t="s">
@@ -10059,7 +10147,7 @@
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="4">
         <v>8401</v>
       </c>
       <c r="B248" t="s">
@@ -10067,7 +10155,7 @@
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="4">
         <v>8402</v>
       </c>
       <c r="B249" t="s">
@@ -10075,7 +10163,7 @@
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="4">
         <v>8403</v>
       </c>
       <c r="B250" t="s">
@@ -10083,7 +10171,7 @@
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="4">
         <v>8404</v>
       </c>
       <c r="B251" t="s">
@@ -10091,7 +10179,7 @@
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="4">
         <v>8405</v>
       </c>
       <c r="B252" t="s">
@@ -10099,7 +10187,7 @@
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="4">
         <v>8406</v>
       </c>
       <c r="B253" t="s">
@@ -10107,7 +10195,7 @@
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="4">
         <v>8407</v>
       </c>
       <c r="B254" t="s">
@@ -10115,7 +10203,7 @@
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="4">
         <v>9999</v>
       </c>
       <c r="B255" t="s">

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="academy" sheetId="8" r:id="rId1"/>
@@ -3457,7 +3457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A244" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -7224,8 +7224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7316,7 +7316,7 @@
         <v>930</v>
       </c>
       <c r="D6" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7330,7 +7330,7 @@
         <v>930</v>
       </c>
       <c r="D7" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7344,7 +7344,7 @@
         <v>930</v>
       </c>
       <c r="D8" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/data/education.xlsx
+++ b/data/education.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="845" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="academy" sheetId="8" r:id="rId1"/>
     <sheet name="type_academy" sheetId="9" r:id="rId2"/>
-    <sheet name="work_group" sheetId="2" r:id="rId3"/>
+    <sheet name="group_work" sheetId="2" r:id="rId3"/>
     <sheet name="type_assessor" sheetId="3" r:id="rId4"/>
     <sheet name="edu_level" sheetId="7" r:id="rId5"/>
     <sheet name="faculty" sheetId="4" r:id="rId6"/>
-    <sheet name="faculty_group" sheetId="5" r:id="rId7"/>
+    <sheet name="group_faculty" sheetId="5" r:id="rId7"/>
     <sheet name="field_study" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="999">
   <si>
     <t>จุฬาลงกรณ์มหาวิทยาลัย</t>
   </si>
@@ -1678,9 +1678,6 @@
     <t>สหวิทยาการ</t>
   </si>
   <si>
-    <t>faculty_group_name</t>
-  </si>
-  <si>
     <t>community planning</t>
   </si>
   <si>
@@ -2845,9 +2842,6 @@
     <t>อุดมศึกษา</t>
   </si>
   <si>
-    <t>work_group_name</t>
-  </si>
-  <si>
     <t>สถานศึกษาระดับการศึกษาขั้นพื้นฐาน(ทั่วไป)</t>
   </si>
   <si>
@@ -3029,6 +3023,15 @@
   </si>
   <si>
     <t>district_th</t>
+  </si>
+  <si>
+    <t>group_faculty_name</t>
+  </si>
+  <si>
+    <t>group_work_name</t>
+  </si>
+  <si>
+    <t>group_work_id</t>
   </si>
 </sst>
 </file>
@@ -3473,3745 +3476,3745 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>257</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>809</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>809</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>811</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>812</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>814</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>815</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>809</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>818</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>973</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>824</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>825</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="6" t="s">
         <v>827</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>829</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>830</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D15" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="E15" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>834</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>835</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>836</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="E17" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>840</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>841</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>842</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>844</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>846</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>847</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>848</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>960</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>962</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>850</v>
-      </c>
       <c r="E21" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>850</v>
+      </c>
+      <c r="C22" t="s">
+        <v>979</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="C22" t="s">
-        <v>981</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>852</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>853</v>
+      </c>
+      <c r="C23" t="s">
+        <v>982</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>854</v>
-      </c>
-      <c r="C23" t="s">
-        <v>984</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>855</v>
+      </c>
+      <c r="C24" t="s">
+        <v>982</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>856</v>
-      </c>
-      <c r="C24" t="s">
-        <v>984</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>833</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>857</v>
+      </c>
+      <c r="C25" t="s">
+        <v>982</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>858</v>
       </c>
-      <c r="C25" t="s">
-        <v>984</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>859</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>860</v>
+      </c>
+      <c r="C26" t="s">
+        <v>982</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>861</v>
       </c>
-      <c r="C26" t="s">
-        <v>984</v>
-      </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>862</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C27" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C28" t="s">
+        <v>982</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>865</v>
-      </c>
-      <c r="C28" t="s">
-        <v>984</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>862</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>866</v>
+      </c>
+      <c r="C29" t="s">
+        <v>982</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="C29" t="s">
-        <v>984</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>868</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C30" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C31" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>871</v>
+      </c>
+      <c r="C32" t="s">
+        <v>987</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>872</v>
       </c>
-      <c r="C32" t="s">
-        <v>989</v>
-      </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>873</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>874</v>
+      </c>
+      <c r="C33" t="s">
+        <v>989</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="C33" t="s">
-        <v>991</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="E33" s="6" t="s">
         <v>876</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>877</v>
+      </c>
+      <c r="C34" t="s">
+        <v>989</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>878</v>
-      </c>
-      <c r="C34" t="s">
-        <v>991</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>852</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="C35" t="s">
+        <v>989</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>880</v>
       </c>
-      <c r="C35" t="s">
-        <v>991</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>881</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>882</v>
+      </c>
+      <c r="C36" t="s">
+        <v>989</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>883</v>
       </c>
-      <c r="C36" t="s">
-        <v>991</v>
-      </c>
-      <c r="D36" s="4" t="s">
+      <c r="E36" s="4" t="s">
         <v>884</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>885</v>
+      </c>
+      <c r="C37" t="s">
+        <v>989</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="C37" t="s">
-        <v>991</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="E37" s="6" t="s">
         <v>887</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>888</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B38" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="C38" t="s">
+        <v>989</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>889</v>
       </c>
-      <c r="C38" t="s">
-        <v>991</v>
-      </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>890</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="C39" t="s">
+        <v>989</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>892</v>
       </c>
-      <c r="C39" t="s">
-        <v>991</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" s="6" t="s">
         <v>893</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B40" s="8" t="s">
+        <v>894</v>
+      </c>
+      <c r="C40" t="s">
+        <v>989</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>841</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>895</v>
-      </c>
-      <c r="C40" t="s">
-        <v>991</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>842</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>896</v>
+      </c>
+      <c r="C41" t="s">
+        <v>989</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>897</v>
-      </c>
-      <c r="C41" t="s">
-        <v>991</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C42" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D42" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>901</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>902</v>
+      </c>
+      <c r="C43" t="s">
+        <v>988</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>903</v>
-      </c>
-      <c r="C43" t="s">
-        <v>990</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>904</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B44" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="C44" t="s">
+        <v>988</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>905</v>
-      </c>
-      <c r="C44" t="s">
-        <v>990</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>906</v>
+      </c>
+      <c r="C45" t="s">
+        <v>988</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>907</v>
-      </c>
-      <c r="C45" t="s">
-        <v>990</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C46" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>909</v>
+      </c>
+      <c r="C47" t="s">
+        <v>988</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>910</v>
-      </c>
-      <c r="C47" t="s">
-        <v>990</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B48" s="8" t="s">
+        <v>911</v>
+      </c>
+      <c r="C48" t="s">
+        <v>988</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>912</v>
-      </c>
-      <c r="C48" t="s">
-        <v>990</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>901</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B49" s="8" t="s">
+        <v>913</v>
+      </c>
+      <c r="C49" t="s">
+        <v>988</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="E49" s="6" t="s">
         <v>914</v>
-      </c>
-      <c r="C49" t="s">
-        <v>990</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>915</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>915</v>
+      </c>
+      <c r="C50" t="s">
+        <v>988</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>916</v>
-      </c>
-      <c r="C50" t="s">
-        <v>990</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C51" t="s">
+        <v>988</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E51" s="6" t="s">
         <v>918</v>
-      </c>
-      <c r="C51" t="s">
-        <v>990</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>893</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B55" t="s">
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B57" t="s">
         <v>14</v>
       </c>
       <c r="C57" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B58" t="s">
         <v>26</v>
       </c>
       <c r="C58" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B59" t="s">
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B60" t="s">
         <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B61" t="s">
         <v>45</v>
       </c>
       <c r="C61" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D61" s="6" t="s">
+        <v>924</v>
+      </c>
+      <c r="E61" s="6" t="s">
         <v>925</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B62" t="s">
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B63" t="s">
         <v>48</v>
       </c>
       <c r="C63" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B64" t="s">
         <v>43</v>
       </c>
       <c r="C64" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B65" t="s">
         <v>44</v>
       </c>
       <c r="C65" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B68" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B69" t="s">
         <v>47</v>
       </c>
       <c r="C69" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B70" t="s">
         <v>32</v>
       </c>
       <c r="C70" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B72" t="s">
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B73" t="s">
         <v>93</v>
       </c>
       <c r="C73" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B74" t="s">
         <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B75" t="s">
         <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B76" t="s">
         <v>101</v>
       </c>
       <c r="C76" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B77" t="s">
         <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B79" t="s">
         <v>247</v>
       </c>
       <c r="C79" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B80" t="s">
         <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B81" t="s">
         <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B82" t="s">
         <v>58</v>
       </c>
       <c r="C82" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B83" t="s">
         <v>60</v>
       </c>
       <c r="C83" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B84" t="s">
         <v>71</v>
       </c>
       <c r="C84" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B85" t="s">
         <v>72</v>
       </c>
       <c r="C85" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B86" t="s">
         <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B87" t="s">
         <v>53</v>
       </c>
       <c r="C87" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B88" t="s">
         <v>54</v>
       </c>
       <c r="C88" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B89" t="s">
         <v>55</v>
       </c>
       <c r="C89" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B90" t="s">
         <v>56</v>
       </c>
       <c r="C90" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B91" t="s">
         <v>57</v>
       </c>
       <c r="C91" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B92" t="s">
         <v>61</v>
       </c>
       <c r="C92" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B93" t="s">
         <v>62</v>
       </c>
       <c r="C93" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B94" t="s">
         <v>63</v>
       </c>
       <c r="C94" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B95" t="s">
         <v>64</v>
       </c>
       <c r="C95" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B96" t="s">
         <v>65</v>
       </c>
       <c r="C96" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B97" t="s">
         <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B98" t="s">
         <v>67</v>
       </c>
       <c r="C98" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B99" t="s">
         <v>68</v>
       </c>
       <c r="C99" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B100" t="s">
         <v>69</v>
       </c>
       <c r="C100" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B101" t="s">
         <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B102" t="s">
         <v>73</v>
       </c>
       <c r="C102" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B103" t="s">
         <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B104" t="s">
         <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
       </c>
       <c r="C105" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B106" t="s">
         <v>77</v>
       </c>
       <c r="C106" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B107" t="s">
         <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B108" t="s">
         <v>79</v>
       </c>
       <c r="C108" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B109" t="s">
         <v>81</v>
       </c>
       <c r="C109" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B110" t="s">
         <v>82</v>
       </c>
       <c r="C110" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B111" t="s">
         <v>83</v>
       </c>
       <c r="C111" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B112" t="s">
         <v>84</v>
       </c>
       <c r="C112" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B113" t="s">
         <v>85</v>
       </c>
       <c r="C113" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B114" t="s">
         <v>86</v>
       </c>
       <c r="C114" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B115" t="s">
         <v>87</v>
       </c>
       <c r="C115" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B116" t="s">
         <v>88</v>
       </c>
       <c r="C116" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B117" t="s">
         <v>89</v>
       </c>
       <c r="C117" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B118" t="s">
         <v>90</v>
       </c>
       <c r="C118" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B119" t="s">
         <v>91</v>
       </c>
       <c r="C119" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B120" t="s">
         <v>92</v>
       </c>
       <c r="C120" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
       </c>
       <c r="C121" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B122" t="s">
         <v>18</v>
       </c>
       <c r="C122" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B124" t="s">
         <v>20</v>
       </c>
       <c r="C124" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B125" t="s">
         <v>21</v>
       </c>
       <c r="C125" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B126" t="s">
         <v>22</v>
       </c>
       <c r="C126" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
       </c>
       <c r="C127" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B128" t="s">
         <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B129" t="s">
         <v>25</v>
       </c>
       <c r="C129" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B130" t="s">
         <v>149</v>
       </c>
       <c r="C130" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B131" t="s">
         <v>151</v>
       </c>
       <c r="C131" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B132" t="s">
         <v>141</v>
       </c>
       <c r="C132" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B133" t="s">
         <v>142</v>
       </c>
       <c r="C133" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B134" t="s">
         <v>143</v>
       </c>
       <c r="C134" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B135" t="s">
         <v>144</v>
       </c>
       <c r="C135" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B136" t="s">
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B137" t="s">
         <v>146</v>
       </c>
       <c r="C137" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B138" t="s">
         <v>147</v>
       </c>
       <c r="C138" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B139" t="s">
         <v>148</v>
       </c>
       <c r="C139" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B140" t="s">
         <v>150</v>
       </c>
       <c r="C140" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B141" t="s">
         <v>152</v>
       </c>
       <c r="C141" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B142" t="s">
         <v>153</v>
       </c>
       <c r="C142" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B143" t="s">
         <v>154</v>
       </c>
       <c r="C143" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B144" t="s">
         <v>155</v>
       </c>
       <c r="C144" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B145" t="s">
         <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B146" t="s">
         <v>157</v>
       </c>
       <c r="C146" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B147" t="s">
         <v>158</v>
       </c>
       <c r="C147" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B148" t="s">
         <v>159</v>
       </c>
       <c r="C148" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B149" t="s">
         <v>160</v>
       </c>
       <c r="C149" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B150" t="s">
         <v>128</v>
       </c>
       <c r="C150" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B151" t="s">
         <v>126</v>
       </c>
       <c r="C151" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B152" t="s">
         <v>114</v>
       </c>
       <c r="C152" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B153" t="s">
         <v>115</v>
       </c>
       <c r="C153" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B154" t="s">
         <v>116</v>
       </c>
       <c r="C154" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B155" t="s">
         <v>117</v>
       </c>
       <c r="C155" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B156" t="s">
         <v>119</v>
       </c>
       <c r="C156" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B157" t="s">
         <v>118</v>
       </c>
       <c r="C157" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B158" t="s">
         <v>120</v>
       </c>
       <c r="C158" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B159" t="s">
         <v>123</v>
       </c>
       <c r="C159" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B160" t="s">
         <v>124</v>
       </c>
       <c r="C160" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B161" t="s">
         <v>121</v>
       </c>
       <c r="C161" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B162" t="s">
         <v>122</v>
       </c>
       <c r="C162" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B163" t="s">
         <v>125</v>
       </c>
       <c r="C163" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B164" t="s">
         <v>127</v>
       </c>
       <c r="C164" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B165" t="s">
         <v>168</v>
       </c>
       <c r="C165" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B166" t="s">
         <v>224</v>
       </c>
       <c r="C166" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B167" t="s">
         <v>225</v>
       </c>
       <c r="C167" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B168" t="s">
         <v>130</v>
       </c>
       <c r="C168" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B169" t="s">
         <v>131</v>
       </c>
       <c r="C169" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B170" t="s">
         <v>132</v>
       </c>
       <c r="C170" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B171" t="s">
         <v>133</v>
       </c>
       <c r="C171" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B172" t="s">
         <v>134</v>
       </c>
       <c r="C172" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B173" t="s">
         <v>135</v>
       </c>
       <c r="C173" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B174" t="s">
         <v>136</v>
       </c>
       <c r="C174" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B175" t="s">
         <v>137</v>
       </c>
       <c r="C175" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B176" t="s">
         <v>140</v>
       </c>
       <c r="C176" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B177" t="s">
         <v>173</v>
       </c>
       <c r="C177" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B178" t="s">
         <v>176</v>
       </c>
       <c r="C178" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B179" t="s">
         <v>174</v>
       </c>
       <c r="C179" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B180" t="s">
         <v>175</v>
       </c>
       <c r="C180" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B181" t="s">
         <v>177</v>
       </c>
       <c r="C181" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B182" t="s">
         <v>178</v>
       </c>
       <c r="C182" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B183" t="s">
         <v>179</v>
       </c>
       <c r="C183" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B184" t="s">
         <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B185" t="s">
         <v>181</v>
       </c>
       <c r="C185" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B186" t="s">
         <v>182</v>
       </c>
       <c r="C186" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B187" t="s">
         <v>183</v>
       </c>
       <c r="C187" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B188" t="s">
         <v>184</v>
       </c>
       <c r="C188" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B189" t="s">
         <v>187</v>
       </c>
       <c r="C189" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B190" t="s">
         <v>186</v>
       </c>
       <c r="C190" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B191" t="s">
         <v>188</v>
       </c>
       <c r="C191" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B192" t="s">
         <v>189</v>
       </c>
       <c r="C192" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B193" t="s">
         <v>190</v>
       </c>
       <c r="C193" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B194" t="s">
         <v>191</v>
       </c>
       <c r="C194" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B195" t="s">
         <v>192</v>
       </c>
       <c r="C195" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B196" t="s">
         <v>198</v>
       </c>
       <c r="C196" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B197" t="s">
         <v>193</v>
       </c>
       <c r="C197" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B198" t="s">
         <v>194</v>
       </c>
       <c r="C198" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B199" t="s">
         <v>195</v>
       </c>
       <c r="C199" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B200" t="s">
         <v>196</v>
       </c>
       <c r="C200" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B201" t="s">
         <v>197</v>
       </c>
       <c r="C201" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B202" t="s">
         <v>199</v>
       </c>
       <c r="C202" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B203" t="s">
         <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B204" t="s">
         <v>201</v>
       </c>
       <c r="C204" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B205" t="s">
         <v>202</v>
       </c>
       <c r="C205" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B206" t="s">
         <v>203</v>
       </c>
       <c r="C206" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B207" t="s">
         <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B208" t="s">
         <v>205</v>
       </c>
       <c r="C208" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B209" t="s">
         <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B210" t="s">
         <v>207</v>
       </c>
       <c r="C210" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B211" t="s">
         <v>208</v>
       </c>
       <c r="C211" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B212" t="s">
         <v>209</v>
       </c>
       <c r="C212" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B213" t="s">
         <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B214" t="s">
         <v>211</v>
       </c>
       <c r="C214" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B215" t="s">
         <v>212</v>
       </c>
       <c r="C215" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B216" t="s">
         <v>213</v>
       </c>
       <c r="C216" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B217" t="s">
         <v>214</v>
       </c>
       <c r="C217" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B218" t="s">
         <v>215</v>
       </c>
       <c r="C218" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B219" t="s">
         <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B220" t="s">
         <v>217</v>
       </c>
       <c r="C220" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B221" t="s">
         <v>218</v>
       </c>
       <c r="C221" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B222" t="s">
         <v>219</v>
       </c>
       <c r="C222" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B223" t="s">
         <v>220</v>
       </c>
       <c r="C223" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B224" t="s">
         <v>232</v>
       </c>
       <c r="C224" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B225" t="s">
         <v>233</v>
       </c>
       <c r="C225" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B226" t="s">
         <v>234</v>
       </c>
       <c r="C226" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B227" t="s">
         <v>235</v>
       </c>
       <c r="C227" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B228" t="s">
         <v>236</v>
       </c>
       <c r="C228" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B229" t="s">
         <v>237</v>
       </c>
       <c r="C229" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B230" t="s">
         <v>238</v>
       </c>
       <c r="C230" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B231" t="s">
         <v>239</v>
       </c>
       <c r="C231" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B232" t="s">
         <v>240</v>
       </c>
       <c r="C232" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B233" t="s">
         <v>241</v>
       </c>
       <c r="C233" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B234" t="s">
         <v>242</v>
       </c>
       <c r="C234" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B235" t="s">
         <v>244</v>
       </c>
       <c r="C235" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B236" t="s">
         <v>245</v>
       </c>
       <c r="C236" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B237" t="s">
         <v>252</v>
       </c>
       <c r="C237" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B238" t="s">
         <v>4</v>
       </c>
       <c r="C238" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B239" t="s">
         <v>6</v>
       </c>
       <c r="C239" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B240" t="s">
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B242" t="s">
         <v>16</v>
       </c>
       <c r="C242" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B243" t="s">
         <v>96</v>
       </c>
       <c r="C243" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B244" t="s">
         <v>97</v>
       </c>
       <c r="C244" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B245" t="s">
         <v>112</v>
       </c>
       <c r="C245" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B246" t="s">
         <v>113</v>
       </c>
       <c r="C246" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B247" t="s">
         <v>49</v>
       </c>
       <c r="C247" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B248" t="s">
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B249" t="s">
         <v>2</v>
       </c>
       <c r="C249" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B250" t="s">
         <v>3</v>
       </c>
       <c r="C250" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
       </c>
       <c r="C251" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B252" t="s">
         <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B253" t="s">
         <v>27</v>
       </c>
       <c r="C253" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B254" t="s">
         <v>29</v>
       </c>
       <c r="C254" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B255" t="s">
         <v>34</v>
       </c>
       <c r="C255" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B256" t="s">
         <v>33</v>
       </c>
       <c r="C256" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B257" t="s">
         <v>36</v>
       </c>
       <c r="C257" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B258" t="s">
         <v>35</v>
       </c>
       <c r="C258" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B260" t="s">
         <v>39</v>
       </c>
       <c r="C260" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B261" t="s">
         <v>40</v>
       </c>
       <c r="C261" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B262" t="s">
         <v>41</v>
       </c>
       <c r="C262" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B263" t="s">
         <v>42</v>
       </c>
       <c r="C263" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B264" t="s">
         <v>50</v>
       </c>
       <c r="C264" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B265" t="s">
         <v>51</v>
       </c>
       <c r="C265" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B266" t="s">
         <v>52</v>
       </c>
       <c r="C266" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B267" t="s">
         <v>94</v>
       </c>
       <c r="C267" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B268" t="s">
         <v>99</v>
       </c>
       <c r="C268" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B269" t="s">
         <v>102</v>
       </c>
       <c r="C269" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B270" t="s">
         <v>104</v>
       </c>
       <c r="C270" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B271" t="s">
         <v>105</v>
       </c>
       <c r="C271" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B272" t="s">
         <v>106</v>
       </c>
       <c r="C272" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B273" t="s">
         <v>107</v>
       </c>
       <c r="C273" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B274" t="s">
         <v>108</v>
       </c>
       <c r="C274" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B275" t="s">
         <v>109</v>
       </c>
       <c r="C275" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B276" t="s">
         <v>110</v>
       </c>
       <c r="C276" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B277" t="s">
         <v>138</v>
       </c>
       <c r="C277" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B278" t="s">
         <v>139</v>
       </c>
       <c r="C278" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B279" t="s">
         <v>161</v>
       </c>
       <c r="C279" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A280" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B280" t="s">
         <v>162</v>
       </c>
       <c r="C280" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B281" t="s">
         <v>163</v>
       </c>
       <c r="C281" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B282" t="s">
         <v>164</v>
       </c>
       <c r="C282" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B283" t="s">
         <v>169</v>
       </c>
       <c r="C283" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B284" t="s">
         <v>170</v>
       </c>
       <c r="C284" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B285" t="s">
         <v>171</v>
       </c>
       <c r="C285" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B286" t="s">
         <v>230</v>
       </c>
       <c r="C286" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B287" t="s">
         <v>129</v>
       </c>
       <c r="C287" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B288" t="s">
         <v>165</v>
       </c>
       <c r="C288" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B289" t="s">
         <v>166</v>
       </c>
       <c r="C289" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B290" t="s">
         <v>167</v>
       </c>
       <c r="C290" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B291" t="s">
         <v>172</v>
       </c>
       <c r="C291" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A292" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B292" t="s">
         <v>185</v>
       </c>
       <c r="C292" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B293" t="s">
         <v>221</v>
       </c>
       <c r="C293" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B294" t="s">
         <v>222</v>
       </c>
       <c r="C294" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B295" t="s">
         <v>223</v>
       </c>
       <c r="C295" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B296" t="s">
         <v>226</v>
       </c>
       <c r="C296" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B297" t="s">
         <v>227</v>
       </c>
       <c r="C297" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B298" t="s">
         <v>228</v>
       </c>
       <c r="C298" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B299" t="s">
         <v>229</v>
       </c>
       <c r="C299" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B300" t="s">
         <v>231</v>
       </c>
       <c r="C300" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B301" t="s">
         <v>250</v>
       </c>
       <c r="C301" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B302" t="s">
         <v>246</v>
       </c>
       <c r="C302" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B303" t="s">
         <v>248</v>
       </c>
       <c r="C303" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B304" t="s">
         <v>243</v>
       </c>
       <c r="C304" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B305" t="s">
         <v>253</v>
       </c>
       <c r="C305" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B306" t="s">
         <v>254</v>
       </c>
       <c r="C306" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B307" t="s">
         <v>255</v>
       </c>
       <c r="C307" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -7224,7 +7227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -7240,10 +7243,10 @@
         <v>267</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="C1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D1" t="s">
         <v>266</v>
@@ -7257,10 +7260,10 @@
         <v>9001</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -7271,10 +7274,10 @@
         <v>9002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D3" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -7285,10 +7288,10 @@
         <v>9003</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D4" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -7299,10 +7302,10 @@
         <v>9004</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D5" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -7313,10 +7316,10 @@
         <v>9005</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -7327,10 +7330,10 @@
         <v>9006</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -7341,10 +7344,10 @@
         <v>9007</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D8" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -7355,346 +7358,346 @@
         <v>9008</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D9" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B10" s="1">
         <v>9033</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D10" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B11" s="1">
         <v>9001</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B12" s="1">
         <v>9015</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B13">
         <v>9002</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D13" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B14">
         <v>9003</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>972</v>
+      </c>
+      <c r="D14" t="s">
         <v>974</v>
-      </c>
-      <c r="D14" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B15">
         <v>9004</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D15" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B16">
         <v>9009</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D16" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B17">
         <v>9010</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D17" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B18">
         <v>9011</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D18" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B19">
         <v>9012</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D19" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B20">
         <v>9013</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D20" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B21">
         <v>9014</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D21" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B22">
         <v>9016</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D22" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B23">
         <v>9017</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D23" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B24">
         <v>9034</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B25">
         <v>9035</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="D25" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="B26" s="10">
         <v>9019</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D26" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B27" s="10">
         <v>9020</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D27" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B28" s="10">
         <v>9021</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D28" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B29" s="10">
         <v>9022</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D29" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B30" s="10">
         <v>9023</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D30" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B31" s="10">
         <v>9024</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D31" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B32" s="10">
         <v>9025</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D32" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B33" s="1">
         <v>9018</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D33" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
   </sheetData>
@@ -7708,7 +7711,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7718,7 +7721,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>936</v>
+        <v>997</v>
       </c>
       <c r="B1" t="s">
         <v>275</v>
@@ -7729,68 +7732,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B2">
         <v>9006</v>
       </c>
       <c r="C2" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B3">
         <v>9002</v>
       </c>
       <c r="C3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B4">
         <v>9001</v>
       </c>
       <c r="C4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B5">
         <v>9003</v>
       </c>
       <c r="C5" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B6">
         <v>9007</v>
       </c>
       <c r="C6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B7">
         <v>9004</v>
       </c>
       <c r="C7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -7802,10 +7805,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7814,7 +7817,7 @@
     <col min="3" max="3" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>275</v>
       </c>
@@ -7824,8 +7827,11 @@
       <c r="C1" s="10" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>24</v>
       </c>
@@ -7835,8 +7841,11 @@
       <c r="C2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7846,8 +7855,11 @@
       <c r="C3" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>28</v>
       </c>
@@ -7857,8 +7869,11 @@
       <c r="C4" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7868,8 +7883,11 @@
       <c r="C5" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>26</v>
       </c>
@@ -7879,8 +7897,11 @@
       <c r="C6" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7889,6 +7910,9 @@
       </c>
       <c r="C7" s="10">
         <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>929</v>
       </c>
     </row>
   </sheetData>
@@ -7911,7 +7935,7 @@
         <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -7919,7 +7943,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7927,7 +7951,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7935,7 +7959,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7943,7 +7967,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7951,7 +7975,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
   </sheetData>
@@ -10080,7 +10104,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10094,7 +10118,7 @@
         <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>547</v>
+        <v>996</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10201,7 +10225,7 @@
         <v>266</v>
       </c>
       <c r="B1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -10209,7 +10233,7 @@
         <v>1000</v>
       </c>
       <c r="B2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -10217,7 +10241,7 @@
         <v>1001</v>
       </c>
       <c r="B3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -10225,7 +10249,7 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -10233,7 +10257,7 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -10241,7 +10265,7 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -10249,7 +10273,7 @@
         <v>1005</v>
       </c>
       <c r="B7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -10257,7 +10281,7 @@
         <v>1006</v>
       </c>
       <c r="B8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -10265,7 +10289,7 @@
         <v>1007</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -10273,7 +10297,7 @@
         <v>1008</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -10281,7 +10305,7 @@
         <v>1009</v>
       </c>
       <c r="B11" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -10289,7 +10313,7 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -10297,7 +10321,7 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -10305,7 +10329,7 @@
         <v>1100</v>
       </c>
       <c r="B14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -10313,7 +10337,7 @@
         <v>2000</v>
       </c>
       <c r="B15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -10321,7 +10345,7 @@
         <v>2100</v>
       </c>
       <c r="B16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -10329,7 +10353,7 @@
         <v>2101</v>
       </c>
       <c r="B17" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -10337,7 +10361,7 @@
         <v>2102</v>
       </c>
       <c r="B18" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -10345,7 +10369,7 @@
         <v>2103</v>
       </c>
       <c r="B19" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -10353,7 +10377,7 @@
         <v>2104</v>
       </c>
       <c r="B20" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -10361,7 +10385,7 @@
         <v>2105</v>
       </c>
       <c r="B21" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -10369,7 +10393,7 @@
         <v>2106</v>
       </c>
       <c r="B22" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -10377,7 +10401,7 @@
         <v>2107</v>
       </c>
       <c r="B23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -10385,7 +10409,7 @@
         <v>2108</v>
       </c>
       <c r="B24" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -10393,7 +10417,7 @@
         <v>2109</v>
       </c>
       <c r="B25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -10401,7 +10425,7 @@
         <v>2110</v>
       </c>
       <c r="B26" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -10409,7 +10433,7 @@
         <v>2111</v>
       </c>
       <c r="B27" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -10417,7 +10441,7 @@
         <v>2112</v>
       </c>
       <c r="B28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -10425,7 +10449,7 @@
         <v>2113</v>
       </c>
       <c r="B29" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -10433,7 +10457,7 @@
         <v>2114</v>
       </c>
       <c r="B30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -10441,7 +10465,7 @@
         <v>2200</v>
       </c>
       <c r="B31" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -10449,7 +10473,7 @@
         <v>2201</v>
       </c>
       <c r="B32" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -10457,7 +10481,7 @@
         <v>2202</v>
       </c>
       <c r="B33" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -10465,7 +10489,7 @@
         <v>2203</v>
       </c>
       <c r="B34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -10473,7 +10497,7 @@
         <v>2204</v>
       </c>
       <c r="B35" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -10481,7 +10505,7 @@
         <v>2205</v>
       </c>
       <c r="B36" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -10489,7 +10513,7 @@
         <v>2206</v>
       </c>
       <c r="B37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -10497,7 +10521,7 @@
         <v>2207</v>
       </c>
       <c r="B38" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -10505,7 +10529,7 @@
         <v>2208</v>
       </c>
       <c r="B39" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -10513,7 +10537,7 @@
         <v>2209</v>
       </c>
       <c r="B40" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -10521,7 +10545,7 @@
         <v>2210</v>
       </c>
       <c r="B41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -10529,7 +10553,7 @@
         <v>2211</v>
       </c>
       <c r="B42" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -10537,7 +10561,7 @@
         <v>2212</v>
       </c>
       <c r="B43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -10545,7 +10569,7 @@
         <v>2213</v>
       </c>
       <c r="B44" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -10553,7 +10577,7 @@
         <v>3000</v>
       </c>
       <c r="B45" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -10561,7 +10585,7 @@
         <v>3100</v>
       </c>
       <c r="B46" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -10569,7 +10593,7 @@
         <v>3101</v>
       </c>
       <c r="B47" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -10577,7 +10601,7 @@
         <v>3102</v>
       </c>
       <c r="B48" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -10585,7 +10609,7 @@
         <v>3103</v>
       </c>
       <c r="B49" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -10593,7 +10617,7 @@
         <v>3104</v>
       </c>
       <c r="B50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -10601,7 +10625,7 @@
         <v>3105</v>
       </c>
       <c r="B51" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -10609,7 +10633,7 @@
         <v>3106</v>
       </c>
       <c r="B52" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -10617,7 +10641,7 @@
         <v>3107</v>
       </c>
       <c r="B53" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -10625,7 +10649,7 @@
         <v>3108</v>
       </c>
       <c r="B54" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -10633,7 +10657,7 @@
         <v>3109</v>
       </c>
       <c r="B55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -10641,7 +10665,7 @@
         <v>3110</v>
       </c>
       <c r="B56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -10649,7 +10673,7 @@
         <v>3111</v>
       </c>
       <c r="B57" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -10657,7 +10681,7 @@
         <v>3200</v>
       </c>
       <c r="B58" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10665,7 +10689,7 @@
         <v>3201</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -10673,7 +10697,7 @@
         <v>3202</v>
       </c>
       <c r="B60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10681,7 +10705,7 @@
         <v>3203</v>
       </c>
       <c r="B61" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10689,7 +10713,7 @@
         <v>3204</v>
       </c>
       <c r="B62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10697,7 +10721,7 @@
         <v>3205</v>
       </c>
       <c r="B63" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10705,7 +10729,7 @@
         <v>3300</v>
       </c>
       <c r="B64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10713,7 +10737,7 @@
         <v>3301</v>
       </c>
       <c r="B65" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -10721,7 +10745,7 @@
         <v>3302</v>
       </c>
       <c r="B66" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10729,7 +10753,7 @@
         <v>3303</v>
       </c>
       <c r="B67" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10737,7 +10761,7 @@
         <v>3304</v>
       </c>
       <c r="B68" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10745,7 +10769,7 @@
         <v>3305</v>
       </c>
       <c r="B69" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -10753,7 +10777,7 @@
         <v>3306</v>
       </c>
       <c r="B70" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10761,7 +10785,7 @@
         <v>3307</v>
       </c>
       <c r="B71" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10769,7 +10793,7 @@
         <v>3308</v>
       </c>
       <c r="B72" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10777,7 +10801,7 @@
         <v>3309</v>
       </c>
       <c r="B73" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10785,7 +10809,7 @@
         <v>3310</v>
       </c>
       <c r="B74" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10793,7 +10817,7 @@
         <v>3311</v>
       </c>
       <c r="B75" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10801,7 +10825,7 @@
         <v>3312</v>
       </c>
       <c r="B76" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10809,7 +10833,7 @@
         <v>3313</v>
       </c>
       <c r="B77" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10817,7 +10841,7 @@
         <v>3314</v>
       </c>
       <c r="B78" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10825,7 +10849,7 @@
         <v>3315</v>
       </c>
       <c r="B79" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10833,7 +10857,7 @@
         <v>3316</v>
       </c>
       <c r="B80" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10841,7 +10865,7 @@
         <v>3400</v>
       </c>
       <c r="B81" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10849,7 +10873,7 @@
         <v>3401</v>
       </c>
       <c r="B82" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10857,7 +10881,7 @@
         <v>3402</v>
       </c>
       <c r="B83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10865,7 +10889,7 @@
         <v>3403</v>
       </c>
       <c r="B84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10873,7 +10897,7 @@
         <v>3404</v>
       </c>
       <c r="B85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10881,7 +10905,7 @@
         <v>3405</v>
       </c>
       <c r="B86" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10889,7 +10913,7 @@
         <v>3406</v>
       </c>
       <c r="B87" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10897,7 +10921,7 @@
         <v>3407</v>
       </c>
       <c r="B88" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10905,7 +10929,7 @@
         <v>3408</v>
       </c>
       <c r="B89" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10913,7 +10937,7 @@
         <v>4000</v>
       </c>
       <c r="B90" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10921,7 +10945,7 @@
         <v>4100</v>
       </c>
       <c r="B91" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10929,7 +10953,7 @@
         <v>4101</v>
       </c>
       <c r="B92" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10937,7 +10961,7 @@
         <v>4102</v>
       </c>
       <c r="B93" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10945,7 +10969,7 @@
         <v>4103</v>
       </c>
       <c r="B94" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10953,7 +10977,7 @@
         <v>4104</v>
       </c>
       <c r="B95" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10961,7 +10985,7 @@
         <v>4105</v>
       </c>
       <c r="B96" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10969,7 +10993,7 @@
         <v>4106</v>
       </c>
       <c r="B97" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10977,7 +11001,7 @@
         <v>4107</v>
       </c>
       <c r="B98" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10985,7 +11009,7 @@
         <v>4108</v>
       </c>
       <c r="B99" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10993,7 +11017,7 @@
         <v>4109</v>
       </c>
       <c r="B100" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -11001,7 +11025,7 @@
         <v>4110</v>
       </c>
       <c r="B101" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -11009,7 +11033,7 @@
         <v>4111</v>
       </c>
       <c r="B102" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -11017,7 +11041,7 @@
         <v>4112</v>
       </c>
       <c r="B103" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -11025,7 +11049,7 @@
         <v>4200</v>
       </c>
       <c r="B104" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -11033,7 +11057,7 @@
         <v>4201</v>
       </c>
       <c r="B105" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -11041,7 +11065,7 @@
         <v>4202</v>
       </c>
       <c r="B106" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -11049,7 +11073,7 @@
         <v>4203</v>
       </c>
       <c r="B107" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -11057,7 +11081,7 @@
         <v>4204</v>
       </c>
       <c r="B108" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -11065,7 +11089,7 @@
         <v>4205</v>
       </c>
       <c r="B109" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -11073,7 +11097,7 @@
         <v>4206</v>
       </c>
       <c r="B110" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -11081,7 +11105,7 @@
         <v>4207</v>
       </c>
       <c r="B111" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -11089,7 +11113,7 @@
         <v>4208</v>
       </c>
       <c r="B112" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -11097,7 +11121,7 @@
         <v>4209</v>
       </c>
       <c r="B113" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -11105,7 +11129,7 @@
         <v>4210</v>
       </c>
       <c r="B114" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -11113,7 +11137,7 @@
         <v>4211</v>
       </c>
       <c r="B115" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -11121,7 +11145,7 @@
         <v>4212</v>
       </c>
       <c r="B116" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -11129,7 +11153,7 @@
         <v>4213</v>
       </c>
       <c r="B117" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -11137,7 +11161,7 @@
         <v>4300</v>
       </c>
       <c r="B118" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -11145,7 +11169,7 @@
         <v>4301</v>
       </c>
       <c r="B119" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -11153,7 +11177,7 @@
         <v>4302</v>
       </c>
       <c r="B120" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -11161,7 +11185,7 @@
         <v>4303</v>
       </c>
       <c r="B121" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -11169,7 +11193,7 @@
         <v>4304</v>
       </c>
       <c r="B122" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -11177,7 +11201,7 @@
         <v>4305</v>
       </c>
       <c r="B123" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -11185,7 +11209,7 @@
         <v>4400</v>
       </c>
       <c r="B124" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -11193,7 +11217,7 @@
         <v>4401</v>
       </c>
       <c r="B125" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -11201,7 +11225,7 @@
         <v>4402</v>
       </c>
       <c r="B126" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -11209,7 +11233,7 @@
         <v>4403</v>
       </c>
       <c r="B127" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -11217,7 +11241,7 @@
         <v>4404</v>
       </c>
       <c r="B128" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -11225,7 +11249,7 @@
         <v>4405</v>
       </c>
       <c r="B129" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -11233,7 +11257,7 @@
         <v>4406</v>
       </c>
       <c r="B130" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -11241,7 +11265,7 @@
         <v>4407</v>
       </c>
       <c r="B131" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -11249,7 +11273,7 @@
         <v>4408</v>
       </c>
       <c r="B132" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -11257,7 +11281,7 @@
         <v>5000</v>
       </c>
       <c r="B133" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -11265,7 +11289,7 @@
         <v>5100</v>
       </c>
       <c r="B134" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -11273,7 +11297,7 @@
         <v>5101</v>
       </c>
       <c r="B135" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -11281,7 +11305,7 @@
         <v>5102</v>
       </c>
       <c r="B136" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -11289,7 +11313,7 @@
         <v>5103</v>
       </c>
       <c r="B137" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -11297,7 +11321,7 @@
         <v>5104</v>
       </c>
       <c r="B138" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -11305,7 +11329,7 @@
         <v>5105</v>
       </c>
       <c r="B139" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -11313,7 +11337,7 @@
         <v>5106</v>
       </c>
       <c r="B140" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -11321,7 +11345,7 @@
         <v>5107</v>
       </c>
       <c r="B141" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -11329,7 +11353,7 @@
         <v>5108</v>
       </c>
       <c r="B142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -11337,7 +11361,7 @@
         <v>5109</v>
       </c>
       <c r="B143" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -11345,7 +11369,7 @@
         <v>5200</v>
       </c>
       <c r="B144" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -11353,7 +11377,7 @@
         <v>5201</v>
       </c>
       <c r="B145" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -11361,7 +11385,7 @@
         <v>5202</v>
       </c>
       <c r="B146" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -11369,7 +11393,7 @@
         <v>5203</v>
       </c>
       <c r="B147" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -11377,7 +11401,7 @@
         <v>5204</v>
       </c>
       <c r="B148" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -11385,7 +11409,7 @@
         <v>5205</v>
       </c>
       <c r="B149" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -11393,7 +11417,7 @@
         <v>5206</v>
       </c>
       <c r="B150" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -11401,7 +11425,7 @@
         <v>5207</v>
       </c>
       <c r="B151" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -11409,7 +11433,7 @@
         <v>5300</v>
       </c>
       <c r="B152" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -11417,7 +11441,7 @@
         <v>5301</v>
       </c>
       <c r="B153" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -11425,7 +11449,7 @@
         <v>5302</v>
       </c>
       <c r="B154" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -11433,7 +11457,7 @@
         <v>5303</v>
       </c>
       <c r="B155" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -11441,7 +11465,7 @@
         <v>5304</v>
       </c>
       <c r="B156" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -11449,7 +11473,7 @@
         <v>5305</v>
       </c>
       <c r="B157" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -11457,7 +11481,7 @@
         <v>5306</v>
       </c>
       <c r="B158" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -11465,7 +11489,7 @@
         <v>5307</v>
       </c>
       <c r="B159" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -11473,7 +11497,7 @@
         <v>5308</v>
       </c>
       <c r="B160" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -11489,7 +11513,7 @@
         <v>6100</v>
       </c>
       <c r="B162" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -11497,7 +11521,7 @@
         <v>6101</v>
       </c>
       <c r="B163" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -11505,7 +11529,7 @@
         <v>6102</v>
       </c>
       <c r="B164" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -11513,7 +11537,7 @@
         <v>6103</v>
       </c>
       <c r="B165" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -11521,7 +11545,7 @@
         <v>6104</v>
       </c>
       <c r="B166" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -11529,7 +11553,7 @@
         <v>6105</v>
       </c>
       <c r="B167" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -11537,7 +11561,7 @@
         <v>6106</v>
       </c>
       <c r="B168" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -11545,7 +11569,7 @@
         <v>6107</v>
       </c>
       <c r="B169" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -11553,7 +11577,7 @@
         <v>6108</v>
       </c>
       <c r="B170" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -11561,7 +11585,7 @@
         <v>6109</v>
       </c>
       <c r="B171" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -11569,7 +11593,7 @@
         <v>6110</v>
       </c>
       <c r="B172" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -11577,7 +11601,7 @@
         <v>6200</v>
       </c>
       <c r="B173" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -11585,7 +11609,7 @@
         <v>6201</v>
       </c>
       <c r="B174" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -11593,7 +11617,7 @@
         <v>6202</v>
       </c>
       <c r="B175" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -11601,7 +11625,7 @@
         <v>7000</v>
       </c>
       <c r="B176" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -11609,7 +11633,7 @@
         <v>7100</v>
       </c>
       <c r="B177" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -11617,7 +11641,7 @@
         <v>7101</v>
       </c>
       <c r="B178" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -11625,7 +11649,7 @@
         <v>7102</v>
       </c>
       <c r="B179" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -11633,7 +11657,7 @@
         <v>7103</v>
       </c>
       <c r="B180" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -11641,7 +11665,7 @@
         <v>7104</v>
       </c>
       <c r="B181" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -11649,7 +11673,7 @@
         <v>7105</v>
       </c>
       <c r="B182" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -11657,7 +11681,7 @@
         <v>7106</v>
       </c>
       <c r="B183" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -11665,7 +11689,7 @@
         <v>7107</v>
       </c>
       <c r="B184" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -11673,7 +11697,7 @@
         <v>7108</v>
       </c>
       <c r="B185" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -11681,7 +11705,7 @@
         <v>7109</v>
       </c>
       <c r="B186" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -11689,7 +11713,7 @@
         <v>7110</v>
       </c>
       <c r="B187" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -11697,7 +11721,7 @@
         <v>7111</v>
       </c>
       <c r="B188" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -11705,7 +11729,7 @@
         <v>7112</v>
       </c>
       <c r="B189" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -11713,7 +11737,7 @@
         <v>7113</v>
       </c>
       <c r="B190" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -11721,7 +11745,7 @@
         <v>7114</v>
       </c>
       <c r="B191" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -11729,7 +11753,7 @@
         <v>7115</v>
       </c>
       <c r="B192" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -11737,7 +11761,7 @@
         <v>7116</v>
       </c>
       <c r="B193" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -11745,7 +11769,7 @@
         <v>7117</v>
       </c>
       <c r="B194" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -11753,7 +11777,7 @@
         <v>7118</v>
       </c>
       <c r="B195" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -11761,7 +11785,7 @@
         <v>7119</v>
       </c>
       <c r="B196" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -11769,7 +11793,7 @@
         <v>7120</v>
       </c>
       <c r="B197" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -11777,7 +11801,7 @@
         <v>7121</v>
       </c>
       <c r="B198" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -11785,7 +11809,7 @@
         <v>7122</v>
       </c>
       <c r="B199" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -11793,7 +11817,7 @@
         <v>7123</v>
       </c>
       <c r="B200" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -11801,7 +11825,7 @@
         <v>7124</v>
       </c>
       <c r="B201" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -11809,7 +11833,7 @@
         <v>7125</v>
       </c>
       <c r="B202" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -11817,7 +11841,7 @@
         <v>7126</v>
       </c>
       <c r="B203" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -11825,7 +11849,7 @@
         <v>7127</v>
       </c>
       <c r="B204" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -11833,7 +11857,7 @@
         <v>7128</v>
       </c>
       <c r="B205" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -11841,7 +11865,7 @@
         <v>7129</v>
       </c>
       <c r="B206" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -11849,7 +11873,7 @@
         <v>7130</v>
       </c>
       <c r="B207" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -11857,7 +11881,7 @@
         <v>7131</v>
       </c>
       <c r="B208" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -11865,7 +11889,7 @@
         <v>7132</v>
       </c>
       <c r="B209" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11897,7 @@
         <v>7133</v>
       </c>
       <c r="B210" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -11881,7 +11905,7 @@
         <v>7134</v>
       </c>
       <c r="B211" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -11889,7 +11913,7 @@
         <v>7200</v>
       </c>
       <c r="B212" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -11897,7 +11921,7 @@
         <v>7201</v>
       </c>
       <c r="B213" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -11905,7 +11929,7 @@
         <v>7202</v>
       </c>
       <c r="B214" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -11913,7 +11937,7 @@
         <v>7203</v>
       </c>
       <c r="B215" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -11921,7 +11945,7 @@
         <v>7204</v>
       </c>
       <c r="B216" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -11929,7 +11953,7 @@
         <v>7205</v>
       </c>
       <c r="B217" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -11937,7 +11961,7 @@
         <v>7206</v>
       </c>
       <c r="B218" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -11945,7 +11969,7 @@
         <v>7207</v>
       </c>
       <c r="B219" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -11953,7 +11977,7 @@
         <v>7208</v>
       </c>
       <c r="B220" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -11961,7 +11985,7 @@
         <v>8000</v>
       </c>
       <c r="B221" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -11969,7 +11993,7 @@
         <v>8100</v>
       </c>
       <c r="B222" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -11977,7 +12001,7 @@
         <v>8101</v>
       </c>
       <c r="B223" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -11985,7 +12009,7 @@
         <v>8102</v>
       </c>
       <c r="B224" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -11993,7 +12017,7 @@
         <v>8103</v>
       </c>
       <c r="B225" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -12001,7 +12025,7 @@
         <v>8104</v>
       </c>
       <c r="B226" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -12009,7 +12033,7 @@
         <v>8105</v>
       </c>
       <c r="B227" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -12017,7 +12041,7 @@
         <v>8106</v>
       </c>
       <c r="B228" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -12025,7 +12049,7 @@
         <v>8107</v>
       </c>
       <c r="B229" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -12033,7 +12057,7 @@
         <v>8108</v>
       </c>
       <c r="B230" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -12041,7 +12065,7 @@
         <v>8109</v>
       </c>
       <c r="B231" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -12049,7 +12073,7 @@
         <v>8110</v>
       </c>
       <c r="B232" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -12057,7 +12081,7 @@
         <v>8200</v>
       </c>
       <c r="B233" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -12065,7 +12089,7 @@
         <v>8201</v>
       </c>
       <c r="B234" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -12073,7 +12097,7 @@
         <v>8202</v>
       </c>
       <c r="B235" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -12081,7 +12105,7 @@
         <v>8203</v>
       </c>
       <c r="B236" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -12089,7 +12113,7 @@
         <v>8204</v>
       </c>
       <c r="B237" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -12097,7 +12121,7 @@
         <v>8205</v>
       </c>
       <c r="B238" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -12105,7 +12129,7 @@
         <v>8206</v>
       </c>
       <c r="B239" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -12113,7 +12137,7 @@
         <v>8207</v>
       </c>
       <c r="B240" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -12121,7 +12145,7 @@
         <v>8208</v>
       </c>
       <c r="B241" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -12129,7 +12153,7 @@
         <v>8300</v>
       </c>
       <c r="B242" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -12137,7 +12161,7 @@
         <v>8301</v>
       </c>
       <c r="B243" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -12145,7 +12169,7 @@
         <v>8302</v>
       </c>
       <c r="B244" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -12153,7 +12177,7 @@
         <v>8303</v>
       </c>
       <c r="B245" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -12161,7 +12185,7 @@
         <v>8304</v>
       </c>
       <c r="B246" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -12169,7 +12193,7 @@
         <v>8400</v>
       </c>
       <c r="B247" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -12177,7 +12201,7 @@
         <v>8401</v>
       </c>
       <c r="B248" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -12185,7 +12209,7 @@
         <v>8402</v>
       </c>
       <c r="B249" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -12193,7 +12217,7 @@
         <v>8403</v>
       </c>
       <c r="B250" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -12201,7 +12225,7 @@
         <v>8404</v>
       </c>
       <c r="B251" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -12209,7 +12233,7 @@
         <v>8405</v>
       </c>
       <c r="B252" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -12217,7 +12241,7 @@
         <v>8406</v>
       </c>
       <c r="B253" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -12225,7 +12249,7 @@
         <v>8407</v>
       </c>
       <c r="B254" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
